--- a/jobs/etl_jobs/external/ppg/templates/export_template.xlsx
+++ b/jobs/etl_jobs/external/ppg/templates/export_template.xlsx
@@ -816,7 +816,7 @@
     <t>Nombre d'établissements éligibles</t>
   </si>
   <si>
-    <t>kpi_name = pct_partenaire_culturel_actif</t>
+    <t>kpi_name = taux_d_utilisation_du_credit</t>
   </si>
   <si>
     <t>Taux de conso (%)</t>
@@ -828,7 +828,7 @@
     <t>Montant théorique alloué</t>
   </si>
   <si>
-    <t>kpi_name = total_partenaire_avec_offre_vitrine</t>
+    <t>kpi_name = montant_moyen_par_reservation</t>
   </si>
   <si>
     <t>Montant moyen par réservation</t>
@@ -840,7 +840,7 @@
     <t>Dont engagé auprès d'AC du territoire</t>
   </si>
   <si>
-    <t>kpi_name = taux_d_utilisation_du_credit</t>
+    <t>kpi_name = pct_partenaire_culturel_actif</t>
   </si>
   <si>
     <t>Taux de couverture AC (%)</t>
@@ -852,7 +852,7 @@
     <t>Nombre d'AC activés (déjà publié une offre collective)</t>
   </si>
   <si>
-    <t>kpi_name = montant_moyen_par_reservation</t>
+    <t>kpi_name = total_partenaire_avec_offre_vitrine</t>
   </si>
   <si>
     <t>Nombre d'AC avec offres vitrines</t>
@@ -47781,7 +47781,7 @@
       <c r="G12" s="127"/>
       <c r="H12" s="127"/>
       <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
+      <c r="J12" s="121"/>
       <c r="K12" s="127"/>
       <c r="L12" s="127"/>
       <c r="M12" s="127"/>
@@ -47800,6 +47800,7 @@
       <c r="C13" s="122"/>
       <c r="D13" s="129"/>
       <c r="F13" s="23"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14">
       <c r="A14" s="121" t="s">
@@ -47819,7 +47820,7 @@
       <c r="G14" s="124"/>
       <c r="H14" s="124"/>
       <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
+      <c r="J14" s="121"/>
       <c r="K14" s="124"/>
       <c r="L14" s="124"/>
       <c r="M14" s="124"/>
@@ -47850,7 +47851,7 @@
       <c r="G15" s="130"/>
       <c r="H15" s="130"/>
       <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
+      <c r="J15" s="121"/>
       <c r="K15" s="130"/>
       <c r="L15" s="130"/>
       <c r="M15" s="130"/>

--- a/jobs/etl_jobs/external/ppg/templates/export_template.xlsx
+++ b/jobs/etl_jobs/external/ppg/templates/export_template.xlsx
@@ -1642,7 +1642,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2077,6 +2077,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="7" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="12" fillId="5" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10610,16 +10613,16 @@
       <c r="D3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="169" t="s">
         <v>399</v>
       </c>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="169" t="s">
         <v>403</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="169" t="s">
         <v>407</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -20171,18 +20174,18 @@
       <c r="B28" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="138" t="s">
-        <v>114</v>
+      <c r="C28" s="160" t="s">
+        <v>162</v>
       </c>
       <c r="D28" s="151" t="s">
         <v>287</v>
       </c>
       <c r="E28" s="145"/>
       <c r="F28" s="141"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
       <c r="K28" s="147"/>
       <c r="L28" s="147"/>
       <c r="M28" s="147"/>
@@ -20203,8 +20206,8 @@
       <c r="B29" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="138" t="s">
-        <v>114</v>
+      <c r="C29" s="160" t="s">
+        <v>162</v>
       </c>
       <c r="D29" s="151" t="s">
         <v>289</v>
@@ -20235,8 +20238,8 @@
       <c r="B30" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="138" t="s">
-        <v>114</v>
+      <c r="C30" s="160" t="s">
+        <v>162</v>
       </c>
       <c r="D30" s="151" t="s">
         <v>291</v>
@@ -20265,7 +20268,7 @@
       <c r="B31" s="150"/>
       <c r="C31" s="150"/>
       <c r="D31" s="157"/>
-      <c r="F31" s="161"/>
+      <c r="F31" s="162"/>
       <c r="G31" s="154"/>
       <c r="H31" s="154"/>
       <c r="I31" s="154"/>
@@ -20299,12 +20302,12 @@
       <c r="D33" s="134" t="s">
         <v>292</v>
       </c>
-      <c r="E33" s="162"/>
+      <c r="E33" s="163"/>
       <c r="F33" s="136"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="164"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="138"/>
@@ -20327,12 +20330,12 @@
       <c r="D35" s="134" t="s">
         <v>293</v>
       </c>
-      <c r="E35" s="162"/>
+      <c r="E35" s="163"/>
       <c r="F35" s="136"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="164"/>
       <c r="K35" s="147"/>
       <c r="L35" s="147"/>
       <c r="M35" s="147"/>
@@ -20359,12 +20362,12 @@
       <c r="D36" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="160"/>
+      <c r="E36" s="161"/>
       <c r="F36" s="141"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
       <c r="K36" s="142"/>
       <c r="L36" s="142"/>
       <c r="M36" s="142"/>
@@ -20391,12 +20394,12 @@
       <c r="D37" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E37" s="164"/>
+      <c r="E37" s="165"/>
       <c r="F37" s="146"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
       <c r="I37" s="145"/>
-      <c r="J37" s="164"/>
+      <c r="J37" s="165"/>
       <c r="K37" s="147"/>
       <c r="L37" s="147"/>
       <c r="M37" s="147"/>
@@ -20509,12 +20512,12 @@
       <c r="D42" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="E42" s="162"/>
+      <c r="E42" s="163"/>
       <c r="F42" s="136"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="163"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="164"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="138" t="s">
@@ -20549,12 +20552,12 @@
       <c r="D44" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E44" s="164"/>
+      <c r="E44" s="165"/>
       <c r="F44" s="146"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="138" t="s">
@@ -20632,12 +20635,12 @@
       <c r="D49" s="80" t="s">
         <v>309</v>
       </c>
-      <c r="E49" s="162"/>
+      <c r="E49" s="163"/>
       <c r="F49" s="136"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="162"/>
-      <c r="I49" s="162"/>
-      <c r="J49" s="163"/>
+      <c r="G49" s="163"/>
+      <c r="H49" s="163"/>
+      <c r="I49" s="163"/>
+      <c r="J49" s="164"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="138" t="s">
@@ -20672,12 +20675,12 @@
       <c r="D51" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E51" s="164"/>
+      <c r="E51" s="165"/>
       <c r="F51" s="146"/>
-      <c r="G51" s="164"/>
-      <c r="H51" s="164"/>
-      <c r="I51" s="164"/>
-      <c r="J51" s="164"/>
+      <c r="G51" s="165"/>
+      <c r="H51" s="165"/>
+      <c r="I51" s="165"/>
+      <c r="J51" s="165"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="138" t="s">
@@ -20755,12 +20758,12 @@
       <c r="D56" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="E56" s="162"/>
+      <c r="E56" s="163"/>
       <c r="F56" s="136"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="163"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="163"/>
+      <c r="I56" s="163"/>
+      <c r="J56" s="164"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="138" t="s">
@@ -20795,12 +20798,12 @@
       <c r="D58" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E58" s="164"/>
+      <c r="E58" s="165"/>
       <c r="F58" s="146"/>
-      <c r="G58" s="164"/>
-      <c r="H58" s="164"/>
-      <c r="I58" s="164"/>
-      <c r="J58" s="164"/>
+      <c r="G58" s="165"/>
+      <c r="H58" s="165"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="165"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="138" t="s">
@@ -20878,12 +20881,12 @@
       <c r="D63" s="80" t="s">
         <v>321</v>
       </c>
-      <c r="E63" s="162"/>
+      <c r="E63" s="163"/>
       <c r="F63" s="136"/>
-      <c r="G63" s="162"/>
-      <c r="H63" s="162"/>
-      <c r="I63" s="162"/>
-      <c r="J63" s="163"/>
+      <c r="G63" s="163"/>
+      <c r="H63" s="163"/>
+      <c r="I63" s="163"/>
+      <c r="J63" s="164"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="138" t="s">
@@ -20918,12 +20921,12 @@
       <c r="D65" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E65" s="164"/>
+      <c r="E65" s="165"/>
       <c r="F65" s="146"/>
-      <c r="G65" s="164"/>
-      <c r="H65" s="164"/>
-      <c r="I65" s="164"/>
-      <c r="J65" s="164"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="165"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="138" t="s">
@@ -21001,12 +21004,12 @@
       <c r="D70" s="80" t="s">
         <v>327</v>
       </c>
-      <c r="E70" s="162"/>
+      <c r="E70" s="163"/>
       <c r="F70" s="136"/>
-      <c r="G70" s="162"/>
-      <c r="H70" s="162"/>
-      <c r="I70" s="162"/>
-      <c r="J70" s="163"/>
+      <c r="G70" s="163"/>
+      <c r="H70" s="163"/>
+      <c r="I70" s="163"/>
+      <c r="J70" s="164"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="138" t="s">
@@ -21041,12 +21044,12 @@
       <c r="D72" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E72" s="164"/>
+      <c r="E72" s="165"/>
       <c r="F72" s="146"/>
-      <c r="G72" s="164"/>
-      <c r="H72" s="164"/>
-      <c r="I72" s="164"/>
-      <c r="J72" s="164"/>
+      <c r="G72" s="165"/>
+      <c r="H72" s="165"/>
+      <c r="I72" s="165"/>
+      <c r="J72" s="165"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="138" t="s">
@@ -21124,12 +21127,12 @@
       <c r="D77" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="E77" s="162"/>
+      <c r="E77" s="163"/>
       <c r="F77" s="136"/>
-      <c r="G77" s="162"/>
-      <c r="H77" s="162"/>
-      <c r="I77" s="162"/>
-      <c r="J77" s="163"/>
+      <c r="G77" s="163"/>
+      <c r="H77" s="163"/>
+      <c r="I77" s="163"/>
+      <c r="J77" s="164"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="138" t="s">
@@ -21164,12 +21167,12 @@
       <c r="D79" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E79" s="164"/>
+      <c r="E79" s="165"/>
       <c r="F79" s="146"/>
-      <c r="G79" s="164"/>
-      <c r="H79" s="164"/>
-      <c r="I79" s="164"/>
-      <c r="J79" s="164"/>
+      <c r="G79" s="165"/>
+      <c r="H79" s="165"/>
+      <c r="I79" s="165"/>
+      <c r="J79" s="165"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="138" t="s">
@@ -21247,12 +21250,12 @@
       <c r="D84" s="80" t="s">
         <v>339</v>
       </c>
-      <c r="E84" s="162"/>
+      <c r="E84" s="163"/>
       <c r="F84" s="136"/>
-      <c r="G84" s="162"/>
-      <c r="H84" s="162"/>
-      <c r="I84" s="162"/>
-      <c r="J84" s="163"/>
+      <c r="G84" s="163"/>
+      <c r="H84" s="163"/>
+      <c r="I84" s="163"/>
+      <c r="J84" s="164"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="138" t="s">
@@ -21287,12 +21290,12 @@
       <c r="D86" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E86" s="164"/>
+      <c r="E86" s="165"/>
       <c r="F86" s="146"/>
-      <c r="G86" s="164"/>
-      <c r="H86" s="164"/>
-      <c r="I86" s="164"/>
-      <c r="J86" s="164"/>
+      <c r="G86" s="165"/>
+      <c r="H86" s="165"/>
+      <c r="I86" s="165"/>
+      <c r="J86" s="165"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="138" t="s">
@@ -21370,12 +21373,12 @@
       <c r="D91" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="E91" s="162"/>
+      <c r="E91" s="163"/>
       <c r="F91" s="136"/>
-      <c r="G91" s="162"/>
-      <c r="H91" s="162"/>
-      <c r="I91" s="162"/>
-      <c r="J91" s="163"/>
+      <c r="G91" s="163"/>
+      <c r="H91" s="163"/>
+      <c r="I91" s="163"/>
+      <c r="J91" s="164"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="138" t="s">
@@ -21410,12 +21413,12 @@
       <c r="D93" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E93" s="164"/>
+      <c r="E93" s="165"/>
       <c r="F93" s="146"/>
-      <c r="G93" s="164"/>
-      <c r="H93" s="164"/>
-      <c r="I93" s="164"/>
-      <c r="J93" s="164"/>
+      <c r="G93" s="165"/>
+      <c r="H93" s="165"/>
+      <c r="I93" s="165"/>
+      <c r="J93" s="165"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="138" t="s">
@@ -21493,12 +21496,12 @@
       <c r="D98" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="E98" s="162"/>
+      <c r="E98" s="163"/>
       <c r="F98" s="136"/>
-      <c r="G98" s="162"/>
-      <c r="H98" s="162"/>
-      <c r="I98" s="162"/>
-      <c r="J98" s="163"/>
+      <c r="G98" s="163"/>
+      <c r="H98" s="163"/>
+      <c r="I98" s="163"/>
+      <c r="J98" s="164"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="138" t="s">
@@ -21533,12 +21536,12 @@
       <c r="D100" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E100" s="164"/>
+      <c r="E100" s="165"/>
       <c r="F100" s="146"/>
-      <c r="G100" s="164"/>
-      <c r="H100" s="164"/>
-      <c r="I100" s="164"/>
-      <c r="J100" s="164"/>
+      <c r="G100" s="165"/>
+      <c r="H100" s="165"/>
+      <c r="I100" s="165"/>
+      <c r="J100" s="165"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="138" t="s">
@@ -21616,12 +21619,12 @@
       <c r="D105" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="E105" s="162"/>
+      <c r="E105" s="163"/>
       <c r="F105" s="136"/>
-      <c r="G105" s="162"/>
-      <c r="H105" s="162"/>
-      <c r="I105" s="162"/>
-      <c r="J105" s="163"/>
+      <c r="G105" s="163"/>
+      <c r="H105" s="163"/>
+      <c r="I105" s="163"/>
+      <c r="J105" s="164"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="138" t="s">
@@ -21656,12 +21659,12 @@
       <c r="D107" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E107" s="164"/>
+      <c r="E107" s="165"/>
       <c r="F107" s="146"/>
-      <c r="G107" s="164"/>
-      <c r="H107" s="164"/>
-      <c r="I107" s="164"/>
-      <c r="J107" s="164"/>
+      <c r="G107" s="165"/>
+      <c r="H107" s="165"/>
+      <c r="I107" s="165"/>
+      <c r="J107" s="165"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="138" t="s">
@@ -21739,12 +21742,12 @@
       <c r="D112" s="80" t="s">
         <v>363</v>
       </c>
-      <c r="E112" s="162"/>
+      <c r="E112" s="163"/>
       <c r="F112" s="136"/>
-      <c r="G112" s="162"/>
-      <c r="H112" s="162"/>
-      <c r="I112" s="162"/>
-      <c r="J112" s="163"/>
+      <c r="G112" s="163"/>
+      <c r="H112" s="163"/>
+      <c r="I112" s="163"/>
+      <c r="J112" s="164"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="138" t="s">
@@ -21779,12 +21782,12 @@
       <c r="D114" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E114" s="164"/>
+      <c r="E114" s="165"/>
       <c r="F114" s="146"/>
-      <c r="G114" s="164"/>
-      <c r="H114" s="164"/>
-      <c r="I114" s="164"/>
-      <c r="J114" s="164"/>
+      <c r="G114" s="165"/>
+      <c r="H114" s="165"/>
+      <c r="I114" s="165"/>
+      <c r="J114" s="165"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="138" t="s">
@@ -21862,12 +21865,12 @@
       <c r="D119" s="80" t="s">
         <v>369</v>
       </c>
-      <c r="E119" s="162"/>
+      <c r="E119" s="163"/>
       <c r="F119" s="136"/>
-      <c r="G119" s="162"/>
-      <c r="H119" s="162"/>
-      <c r="I119" s="162"/>
-      <c r="J119" s="163"/>
+      <c r="G119" s="163"/>
+      <c r="H119" s="163"/>
+      <c r="I119" s="163"/>
+      <c r="J119" s="164"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="138" t="s">
@@ -21902,12 +21905,12 @@
       <c r="D121" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E121" s="164"/>
+      <c r="E121" s="165"/>
       <c r="F121" s="146"/>
-      <c r="G121" s="164"/>
-      <c r="H121" s="164"/>
-      <c r="I121" s="164"/>
-      <c r="J121" s="164"/>
+      <c r="G121" s="165"/>
+      <c r="H121" s="165"/>
+      <c r="I121" s="165"/>
+      <c r="J121" s="165"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="138" t="s">
@@ -21985,12 +21988,12 @@
       <c r="D126" s="80" t="s">
         <v>375</v>
       </c>
-      <c r="E126" s="162"/>
+      <c r="E126" s="163"/>
       <c r="F126" s="136"/>
-      <c r="G126" s="162"/>
-      <c r="H126" s="162"/>
-      <c r="I126" s="162"/>
-      <c r="J126" s="163"/>
+      <c r="G126" s="163"/>
+      <c r="H126" s="163"/>
+      <c r="I126" s="163"/>
+      <c r="J126" s="164"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="138" t="s">
@@ -22025,12 +22028,12 @@
       <c r="D128" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E128" s="164"/>
+      <c r="E128" s="165"/>
       <c r="F128" s="146"/>
-      <c r="G128" s="164"/>
-      <c r="H128" s="164"/>
-      <c r="I128" s="164"/>
-      <c r="J128" s="164"/>
+      <c r="G128" s="165"/>
+      <c r="H128" s="165"/>
+      <c r="I128" s="165"/>
+      <c r="J128" s="165"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="138" t="s">
@@ -22108,12 +22111,12 @@
       <c r="D133" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="E133" s="162"/>
+      <c r="E133" s="163"/>
       <c r="F133" s="136"/>
-      <c r="G133" s="162"/>
-      <c r="H133" s="162"/>
-      <c r="I133" s="162"/>
-      <c r="J133" s="163"/>
+      <c r="G133" s="163"/>
+      <c r="H133" s="163"/>
+      <c r="I133" s="163"/>
+      <c r="J133" s="164"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="138" t="s">
@@ -22148,12 +22151,12 @@
       <c r="D135" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E135" s="164"/>
+      <c r="E135" s="165"/>
       <c r="F135" s="146"/>
-      <c r="G135" s="164"/>
-      <c r="H135" s="164"/>
-      <c r="I135" s="164"/>
-      <c r="J135" s="164"/>
+      <c r="G135" s="165"/>
+      <c r="H135" s="165"/>
+      <c r="I135" s="165"/>
+      <c r="J135" s="165"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="138" t="s">
@@ -22231,12 +22234,12 @@
       <c r="D140" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="E140" s="162"/>
+      <c r="E140" s="163"/>
       <c r="F140" s="136"/>
-      <c r="G140" s="162"/>
-      <c r="H140" s="162"/>
-      <c r="I140" s="162"/>
-      <c r="J140" s="163"/>
+      <c r="G140" s="163"/>
+      <c r="H140" s="163"/>
+      <c r="I140" s="163"/>
+      <c r="J140" s="164"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="138" t="s">
@@ -22271,12 +22274,12 @@
       <c r="D142" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E142" s="164"/>
+      <c r="E142" s="165"/>
       <c r="F142" s="146"/>
-      <c r="G142" s="164"/>
-      <c r="H142" s="164"/>
-      <c r="I142" s="164"/>
-      <c r="J142" s="164"/>
+      <c r="G142" s="165"/>
+      <c r="H142" s="165"/>
+      <c r="I142" s="165"/>
+      <c r="J142" s="165"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="138" t="s">
@@ -22354,12 +22357,12 @@
       <c r="D147" s="80" t="s">
         <v>393</v>
       </c>
-      <c r="E147" s="162"/>
+      <c r="E147" s="163"/>
       <c r="F147" s="136"/>
-      <c r="G147" s="162"/>
-      <c r="H147" s="162"/>
-      <c r="I147" s="162"/>
-      <c r="J147" s="163"/>
+      <c r="G147" s="163"/>
+      <c r="H147" s="163"/>
+      <c r="I147" s="163"/>
+      <c r="J147" s="164"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="138" t="s">
@@ -22394,12 +22397,12 @@
       <c r="D149" s="157" t="s">
         <v>296</v>
       </c>
-      <c r="E149" s="164"/>
+      <c r="E149" s="165"/>
       <c r="F149" s="146"/>
-      <c r="G149" s="164"/>
-      <c r="H149" s="164"/>
-      <c r="I149" s="164"/>
-      <c r="J149" s="164"/>
+      <c r="G149" s="165"/>
+      <c r="H149" s="165"/>
+      <c r="I149" s="165"/>
+      <c r="J149" s="165"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="138" t="s">
@@ -22463,7 +22466,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="C153" s="129"/>
-      <c r="F153" s="161"/>
+      <c r="F153" s="162"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="C154" s="129"/>
@@ -23460,1948 +23463,1948 @@
       <c r="F352" s="131"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="C353" s="165"/>
+      <c r="C353" s="166"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="C354" s="165"/>
+      <c r="C354" s="166"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="C355" s="165"/>
+      <c r="C355" s="166"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="C356" s="165"/>
+      <c r="C356" s="166"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="C357" s="165"/>
+      <c r="C357" s="166"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="C358" s="165"/>
+      <c r="C358" s="166"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="C359" s="165"/>
+      <c r="C359" s="166"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="C360" s="165"/>
+      <c r="C360" s="166"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="C361" s="165"/>
+      <c r="C361" s="166"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="C362" s="165"/>
+      <c r="C362" s="166"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="C363" s="165"/>
+      <c r="C363" s="166"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="C364" s="165"/>
+      <c r="C364" s="166"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="C365" s="165"/>
+      <c r="C365" s="166"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="C366" s="165"/>
+      <c r="C366" s="166"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="C367" s="165"/>
+      <c r="C367" s="166"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="C368" s="165"/>
+      <c r="C368" s="166"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="C369" s="165"/>
+      <c r="C369" s="166"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="C370" s="165"/>
+      <c r="C370" s="166"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="C371" s="165"/>
+      <c r="C371" s="166"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="C372" s="165"/>
+      <c r="C372" s="166"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="C373" s="165"/>
+      <c r="C373" s="166"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="C374" s="165"/>
+      <c r="C374" s="166"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="C375" s="165"/>
+      <c r="C375" s="166"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="C376" s="165"/>
+      <c r="C376" s="166"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="C377" s="165"/>
+      <c r="C377" s="166"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="C378" s="165"/>
+      <c r="C378" s="166"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="C379" s="165"/>
+      <c r="C379" s="166"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="C380" s="165"/>
+      <c r="C380" s="166"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="C381" s="165"/>
+      <c r="C381" s="166"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="C382" s="165"/>
+      <c r="C382" s="166"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="C383" s="165"/>
+      <c r="C383" s="166"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="C384" s="165"/>
+      <c r="C384" s="166"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="C385" s="165"/>
+      <c r="C385" s="166"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="C386" s="165"/>
+      <c r="C386" s="166"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="C387" s="165"/>
+      <c r="C387" s="166"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="C388" s="165"/>
+      <c r="C388" s="166"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="C389" s="165"/>
+      <c r="C389" s="166"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="C390" s="165"/>
+      <c r="C390" s="166"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="C391" s="165"/>
+      <c r="C391" s="166"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="C392" s="165"/>
+      <c r="C392" s="166"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="C393" s="165"/>
+      <c r="C393" s="166"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="C394" s="165"/>
+      <c r="C394" s="166"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="C395" s="165"/>
+      <c r="C395" s="166"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="C396" s="165"/>
+      <c r="C396" s="166"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="C397" s="165"/>
+      <c r="C397" s="166"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="C398" s="165"/>
+      <c r="C398" s="166"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="C399" s="165"/>
+      <c r="C399" s="166"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="C400" s="165"/>
+      <c r="C400" s="166"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="C401" s="165"/>
+      <c r="C401" s="166"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="C402" s="165"/>
+      <c r="C402" s="166"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="C403" s="165"/>
+      <c r="C403" s="166"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="C404" s="165"/>
+      <c r="C404" s="166"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="C405" s="165"/>
+      <c r="C405" s="166"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="C406" s="165"/>
+      <c r="C406" s="166"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="C407" s="165"/>
+      <c r="C407" s="166"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="C408" s="165"/>
+      <c r="C408" s="166"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="C409" s="165"/>
+      <c r="C409" s="166"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="C410" s="165"/>
+      <c r="C410" s="166"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="C411" s="165"/>
+      <c r="C411" s="166"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="C412" s="165"/>
+      <c r="C412" s="166"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="C413" s="165"/>
+      <c r="C413" s="166"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="C414" s="165"/>
+      <c r="C414" s="166"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="C415" s="165"/>
+      <c r="C415" s="166"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="C416" s="165"/>
+      <c r="C416" s="166"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="C417" s="165"/>
+      <c r="C417" s="166"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="C418" s="165"/>
+      <c r="C418" s="166"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="C419" s="165"/>
+      <c r="C419" s="166"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="C420" s="165"/>
+      <c r="C420" s="166"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="C421" s="165"/>
+      <c r="C421" s="166"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="C422" s="165"/>
+      <c r="C422" s="166"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="C423" s="165"/>
+      <c r="C423" s="166"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="C424" s="165"/>
+      <c r="C424" s="166"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="C425" s="165"/>
+      <c r="C425" s="166"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="C426" s="165"/>
+      <c r="C426" s="166"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="C427" s="165"/>
+      <c r="C427" s="166"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="C428" s="165"/>
+      <c r="C428" s="166"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="C429" s="165"/>
+      <c r="C429" s="166"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="C430" s="165"/>
+      <c r="C430" s="166"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="C431" s="165"/>
+      <c r="C431" s="166"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="C432" s="165"/>
+      <c r="C432" s="166"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="C433" s="165"/>
+      <c r="C433" s="166"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="C434" s="165"/>
+      <c r="C434" s="166"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="C435" s="165"/>
+      <c r="C435" s="166"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="C436" s="165"/>
+      <c r="C436" s="166"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="C437" s="165"/>
+      <c r="C437" s="166"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="C438" s="165"/>
+      <c r="C438" s="166"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="C439" s="165"/>
+      <c r="C439" s="166"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="C440" s="165"/>
+      <c r="C440" s="166"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="C441" s="165"/>
+      <c r="C441" s="166"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="C442" s="165"/>
+      <c r="C442" s="166"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="C443" s="165"/>
+      <c r="C443" s="166"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="C444" s="165"/>
+      <c r="C444" s="166"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="C445" s="165"/>
+      <c r="C445" s="166"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="C446" s="165"/>
+      <c r="C446" s="166"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="C447" s="165"/>
+      <c r="C447" s="166"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="C448" s="165"/>
+      <c r="C448" s="166"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="C449" s="165"/>
+      <c r="C449" s="166"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="C450" s="165"/>
+      <c r="C450" s="166"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="C451" s="165"/>
+      <c r="C451" s="166"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="C452" s="165"/>
+      <c r="C452" s="166"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="C453" s="165"/>
+      <c r="C453" s="166"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="C454" s="165"/>
+      <c r="C454" s="166"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="C455" s="165"/>
+      <c r="C455" s="166"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="C456" s="165"/>
+      <c r="C456" s="166"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="C457" s="165"/>
+      <c r="C457" s="166"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="C458" s="165"/>
+      <c r="C458" s="166"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="C459" s="165"/>
+      <c r="C459" s="166"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="C460" s="165"/>
+      <c r="C460" s="166"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="C461" s="165"/>
+      <c r="C461" s="166"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="C462" s="165"/>
+      <c r="C462" s="166"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="C463" s="165"/>
+      <c r="C463" s="166"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="C464" s="165"/>
+      <c r="C464" s="166"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="C465" s="165"/>
+      <c r="C465" s="166"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="C466" s="165"/>
+      <c r="C466" s="166"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="C467" s="165"/>
+      <c r="C467" s="166"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="C468" s="165"/>
+      <c r="C468" s="166"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="C469" s="165"/>
+      <c r="C469" s="166"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="C470" s="165"/>
+      <c r="C470" s="166"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="C471" s="165"/>
+      <c r="C471" s="166"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="C472" s="165"/>
+      <c r="C472" s="166"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="C473" s="165"/>
+      <c r="C473" s="166"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="C474" s="165"/>
+      <c r="C474" s="166"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="C475" s="165"/>
+      <c r="C475" s="166"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="C476" s="165"/>
+      <c r="C476" s="166"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="C477" s="165"/>
+      <c r="C477" s="166"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="C478" s="165"/>
+      <c r="C478" s="166"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="C479" s="165"/>
+      <c r="C479" s="166"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="C480" s="165"/>
+      <c r="C480" s="166"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="C481" s="165"/>
+      <c r="C481" s="166"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="C482" s="165"/>
+      <c r="C482" s="166"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="C483" s="165"/>
+      <c r="C483" s="166"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="C484" s="165"/>
+      <c r="C484" s="166"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="C485" s="165"/>
+      <c r="C485" s="166"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="C486" s="165"/>
+      <c r="C486" s="166"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="C487" s="165"/>
+      <c r="C487" s="166"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="C488" s="165"/>
+      <c r="C488" s="166"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="C489" s="165"/>
+      <c r="C489" s="166"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="C490" s="165"/>
+      <c r="C490" s="166"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="C491" s="165"/>
+      <c r="C491" s="166"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="C492" s="165"/>
+      <c r="C492" s="166"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="C493" s="165"/>
+      <c r="C493" s="166"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="C494" s="165"/>
+      <c r="C494" s="166"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="C495" s="165"/>
+      <c r="C495" s="166"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="C496" s="165"/>
+      <c r="C496" s="166"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="C497" s="165"/>
+      <c r="C497" s="166"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="C498" s="165"/>
+      <c r="C498" s="166"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="C499" s="165"/>
+      <c r="C499" s="166"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="C500" s="165"/>
+      <c r="C500" s="166"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="C501" s="165"/>
+      <c r="C501" s="166"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="C502" s="165"/>
+      <c r="C502" s="166"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="C503" s="165"/>
+      <c r="C503" s="166"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="C504" s="165"/>
+      <c r="C504" s="166"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="C505" s="165"/>
+      <c r="C505" s="166"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="C506" s="165"/>
+      <c r="C506" s="166"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="C507" s="165"/>
+      <c r="C507" s="166"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="C508" s="165"/>
+      <c r="C508" s="166"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="C509" s="165"/>
+      <c r="C509" s="166"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="C510" s="165"/>
+      <c r="C510" s="166"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="C511" s="165"/>
+      <c r="C511" s="166"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="C512" s="165"/>
+      <c r="C512" s="166"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="C513" s="165"/>
+      <c r="C513" s="166"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="C514" s="165"/>
+      <c r="C514" s="166"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="C515" s="165"/>
+      <c r="C515" s="166"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="C516" s="165"/>
+      <c r="C516" s="166"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="C517" s="165"/>
+      <c r="C517" s="166"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="C518" s="165"/>
+      <c r="C518" s="166"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="C519" s="165"/>
+      <c r="C519" s="166"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="C520" s="165"/>
+      <c r="C520" s="166"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="C521" s="165"/>
+      <c r="C521" s="166"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="C522" s="165"/>
+      <c r="C522" s="166"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="C523" s="165"/>
+      <c r="C523" s="166"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="C524" s="165"/>
+      <c r="C524" s="166"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="C525" s="165"/>
+      <c r="C525" s="166"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="C526" s="165"/>
+      <c r="C526" s="166"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="C527" s="165"/>
+      <c r="C527" s="166"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="C528" s="165"/>
+      <c r="C528" s="166"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="C529" s="165"/>
+      <c r="C529" s="166"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="C530" s="165"/>
+      <c r="C530" s="166"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="C531" s="165"/>
+      <c r="C531" s="166"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="C532" s="165"/>
+      <c r="C532" s="166"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="C533" s="165"/>
+      <c r="C533" s="166"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="C534" s="165"/>
+      <c r="C534" s="166"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="C535" s="165"/>
+      <c r="C535" s="166"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="C536" s="165"/>
+      <c r="C536" s="166"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="C537" s="165"/>
+      <c r="C537" s="166"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="C538" s="165"/>
+      <c r="C538" s="166"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="C539" s="165"/>
+      <c r="C539" s="166"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="C540" s="165"/>
+      <c r="C540" s="166"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="C541" s="165"/>
+      <c r="C541" s="166"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="C542" s="165"/>
+      <c r="C542" s="166"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="C543" s="165"/>
+      <c r="C543" s="166"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="C544" s="165"/>
+      <c r="C544" s="166"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="C545" s="165"/>
+      <c r="C545" s="166"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="C546" s="165"/>
+      <c r="C546" s="166"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="C547" s="165"/>
+      <c r="C547" s="166"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="C548" s="165"/>
+      <c r="C548" s="166"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="C549" s="165"/>
+      <c r="C549" s="166"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="C550" s="165"/>
+      <c r="C550" s="166"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="C551" s="165"/>
+      <c r="C551" s="166"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="C552" s="165"/>
+      <c r="C552" s="166"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="C553" s="165"/>
+      <c r="C553" s="166"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="C554" s="165"/>
+      <c r="C554" s="166"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="C555" s="165"/>
+      <c r="C555" s="166"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="C556" s="165"/>
+      <c r="C556" s="166"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="C557" s="165"/>
+      <c r="C557" s="166"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="C558" s="165"/>
+      <c r="C558" s="166"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="C559" s="165"/>
+      <c r="C559" s="166"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="C560" s="165"/>
+      <c r="C560" s="166"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="C561" s="165"/>
+      <c r="C561" s="166"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="C562" s="165"/>
+      <c r="C562" s="166"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="C563" s="165"/>
+      <c r="C563" s="166"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="C564" s="165"/>
+      <c r="C564" s="166"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="C565" s="165"/>
+      <c r="C565" s="166"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="C566" s="165"/>
+      <c r="C566" s="166"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="C567" s="165"/>
+      <c r="C567" s="166"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="C568" s="165"/>
+      <c r="C568" s="166"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="C569" s="165"/>
+      <c r="C569" s="166"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="C570" s="165"/>
+      <c r="C570" s="166"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="C571" s="165"/>
+      <c r="C571" s="166"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="C572" s="165"/>
+      <c r="C572" s="166"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="C573" s="165"/>
+      <c r="C573" s="166"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="C574" s="165"/>
+      <c r="C574" s="166"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="C575" s="165"/>
+      <c r="C575" s="166"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="C576" s="165"/>
+      <c r="C576" s="166"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="C577" s="165"/>
+      <c r="C577" s="166"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="C578" s="165"/>
+      <c r="C578" s="166"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="C579" s="165"/>
+      <c r="C579" s="166"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="C580" s="165"/>
+      <c r="C580" s="166"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="C581" s="165"/>
+      <c r="C581" s="166"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="C582" s="165"/>
+      <c r="C582" s="166"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="C583" s="165"/>
+      <c r="C583" s="166"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="C584" s="165"/>
+      <c r="C584" s="166"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="C585" s="165"/>
+      <c r="C585" s="166"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="C586" s="165"/>
+      <c r="C586" s="166"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="C587" s="165"/>
+      <c r="C587" s="166"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="C588" s="165"/>
+      <c r="C588" s="166"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="C589" s="165"/>
+      <c r="C589" s="166"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="C590" s="165"/>
+      <c r="C590" s="166"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="C591" s="165"/>
+      <c r="C591" s="166"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="C592" s="165"/>
+      <c r="C592" s="166"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="C593" s="165"/>
+      <c r="C593" s="166"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="C594" s="165"/>
+      <c r="C594" s="166"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="C595" s="165"/>
+      <c r="C595" s="166"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="C596" s="165"/>
+      <c r="C596" s="166"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="C597" s="165"/>
+      <c r="C597" s="166"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="C598" s="165"/>
+      <c r="C598" s="166"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="C599" s="165"/>
+      <c r="C599" s="166"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="C600" s="165"/>
+      <c r="C600" s="166"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="C601" s="165"/>
+      <c r="C601" s="166"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="C602" s="165"/>
+      <c r="C602" s="166"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="C603" s="165"/>
+      <c r="C603" s="166"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="C604" s="165"/>
+      <c r="C604" s="166"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="C605" s="165"/>
+      <c r="C605" s="166"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="C606" s="165"/>
+      <c r="C606" s="166"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="C607" s="165"/>
+      <c r="C607" s="166"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="C608" s="165"/>
+      <c r="C608" s="166"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="C609" s="165"/>
+      <c r="C609" s="166"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="C610" s="165"/>
+      <c r="C610" s="166"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="C611" s="165"/>
+      <c r="C611" s="166"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="C612" s="165"/>
+      <c r="C612" s="166"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="C613" s="165"/>
+      <c r="C613" s="166"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="C614" s="165"/>
+      <c r="C614" s="166"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="C615" s="165"/>
+      <c r="C615" s="166"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="C616" s="165"/>
+      <c r="C616" s="166"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="C617" s="165"/>
+      <c r="C617" s="166"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="C618" s="165"/>
+      <c r="C618" s="166"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="C619" s="165"/>
+      <c r="C619" s="166"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="C620" s="165"/>
+      <c r="C620" s="166"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="C621" s="165"/>
+      <c r="C621" s="166"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="C622" s="165"/>
+      <c r="C622" s="166"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="C623" s="165"/>
+      <c r="C623" s="166"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="C624" s="165"/>
+      <c r="C624" s="166"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="C625" s="165"/>
+      <c r="C625" s="166"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="C626" s="165"/>
+      <c r="C626" s="166"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="C627" s="165"/>
+      <c r="C627" s="166"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="C628" s="165"/>
+      <c r="C628" s="166"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="C629" s="165"/>
+      <c r="C629" s="166"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="C630" s="165"/>
+      <c r="C630" s="166"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="C631" s="165"/>
+      <c r="C631" s="166"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="C632" s="165"/>
+      <c r="C632" s="166"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="C633" s="165"/>
+      <c r="C633" s="166"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="C634" s="165"/>
+      <c r="C634" s="166"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="C635" s="165"/>
+      <c r="C635" s="166"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="C636" s="165"/>
+      <c r="C636" s="166"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="C637" s="165"/>
+      <c r="C637" s="166"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="C638" s="165"/>
+      <c r="C638" s="166"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="C639" s="165"/>
+      <c r="C639" s="166"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="C640" s="165"/>
+      <c r="C640" s="166"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="C641" s="165"/>
+      <c r="C641" s="166"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="C642" s="165"/>
+      <c r="C642" s="166"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="C643" s="165"/>
+      <c r="C643" s="166"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="C644" s="165"/>
+      <c r="C644" s="166"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="C645" s="165"/>
+      <c r="C645" s="166"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="C646" s="165"/>
+      <c r="C646" s="166"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="C647" s="165"/>
+      <c r="C647" s="166"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="C648" s="165"/>
+      <c r="C648" s="166"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="C649" s="165"/>
+      <c r="C649" s="166"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="C650" s="165"/>
+      <c r="C650" s="166"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="C651" s="165"/>
+      <c r="C651" s="166"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="C652" s="165"/>
+      <c r="C652" s="166"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="C653" s="165"/>
+      <c r="C653" s="166"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="C654" s="165"/>
+      <c r="C654" s="166"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="C655" s="165"/>
+      <c r="C655" s="166"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="C656" s="165"/>
+      <c r="C656" s="166"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="C657" s="165"/>
+      <c r="C657" s="166"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="C658" s="165"/>
+      <c r="C658" s="166"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="C659" s="165"/>
+      <c r="C659" s="166"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="C660" s="165"/>
+      <c r="C660" s="166"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="C661" s="165"/>
+      <c r="C661" s="166"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="C662" s="165"/>
+      <c r="C662" s="166"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="C663" s="165"/>
+      <c r="C663" s="166"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="C664" s="165"/>
+      <c r="C664" s="166"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="C665" s="165"/>
+      <c r="C665" s="166"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="C666" s="165"/>
+      <c r="C666" s="166"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="C667" s="165"/>
+      <c r="C667" s="166"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="C668" s="165"/>
+      <c r="C668" s="166"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="C669" s="165"/>
+      <c r="C669" s="166"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="C670" s="165"/>
+      <c r="C670" s="166"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="C671" s="165"/>
+      <c r="C671" s="166"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="C672" s="165"/>
+      <c r="C672" s="166"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="C673" s="165"/>
+      <c r="C673" s="166"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="C674" s="165"/>
+      <c r="C674" s="166"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="C675" s="165"/>
+      <c r="C675" s="166"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="C676" s="165"/>
+      <c r="C676" s="166"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="C677" s="165"/>
+      <c r="C677" s="166"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="C678" s="165"/>
+      <c r="C678" s="166"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="C679" s="165"/>
+      <c r="C679" s="166"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="C680" s="165"/>
+      <c r="C680" s="166"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="C681" s="165"/>
+      <c r="C681" s="166"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="C682" s="165"/>
+      <c r="C682" s="166"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="C683" s="165"/>
+      <c r="C683" s="166"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="C684" s="165"/>
+      <c r="C684" s="166"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="C685" s="165"/>
+      <c r="C685" s="166"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="C686" s="165"/>
+      <c r="C686" s="166"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="C687" s="165"/>
+      <c r="C687" s="166"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="C688" s="165"/>
+      <c r="C688" s="166"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="C689" s="165"/>
+      <c r="C689" s="166"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="C690" s="165"/>
+      <c r="C690" s="166"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="C691" s="165"/>
+      <c r="C691" s="166"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="C692" s="165"/>
+      <c r="C692" s="166"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="C693" s="165"/>
+      <c r="C693" s="166"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="C694" s="165"/>
+      <c r="C694" s="166"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="C695" s="165"/>
+      <c r="C695" s="166"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="C696" s="165"/>
+      <c r="C696" s="166"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="C697" s="165"/>
+      <c r="C697" s="166"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="C698" s="165"/>
+      <c r="C698" s="166"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="C699" s="165"/>
+      <c r="C699" s="166"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="C700" s="165"/>
+      <c r="C700" s="166"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="C701" s="165"/>
+      <c r="C701" s="166"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="C702" s="165"/>
+      <c r="C702" s="166"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="C703" s="165"/>
+      <c r="C703" s="166"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="C704" s="165"/>
+      <c r="C704" s="166"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="C705" s="165"/>
+      <c r="C705" s="166"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="C706" s="165"/>
+      <c r="C706" s="166"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="C707" s="165"/>
+      <c r="C707" s="166"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="C708" s="165"/>
+      <c r="C708" s="166"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="C709" s="165"/>
+      <c r="C709" s="166"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="C710" s="165"/>
+      <c r="C710" s="166"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="C711" s="165"/>
+      <c r="C711" s="166"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="C712" s="165"/>
+      <c r="C712" s="166"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="C713" s="165"/>
+      <c r="C713" s="166"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="C714" s="165"/>
+      <c r="C714" s="166"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="C715" s="165"/>
+      <c r="C715" s="166"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="C716" s="165"/>
+      <c r="C716" s="166"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="C717" s="165"/>
+      <c r="C717" s="166"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="C718" s="165"/>
+      <c r="C718" s="166"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="C719" s="165"/>
+      <c r="C719" s="166"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="C720" s="165"/>
+      <c r="C720" s="166"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="C721" s="165"/>
+      <c r="C721" s="166"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="C722" s="165"/>
+      <c r="C722" s="166"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="C723" s="165"/>
+      <c r="C723" s="166"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="C724" s="165"/>
+      <c r="C724" s="166"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="C725" s="165"/>
+      <c r="C725" s="166"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="C726" s="165"/>
+      <c r="C726" s="166"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="C727" s="165"/>
+      <c r="C727" s="166"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="C728" s="165"/>
+      <c r="C728" s="166"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="C729" s="165"/>
+      <c r="C729" s="166"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="C730" s="165"/>
+      <c r="C730" s="166"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="C731" s="165"/>
+      <c r="C731" s="166"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="C732" s="165"/>
+      <c r="C732" s="166"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="C733" s="165"/>
+      <c r="C733" s="166"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="C734" s="165"/>
+      <c r="C734" s="166"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="C735" s="165"/>
+      <c r="C735" s="166"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="C736" s="165"/>
+      <c r="C736" s="166"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="C737" s="165"/>
+      <c r="C737" s="166"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="C738" s="165"/>
+      <c r="C738" s="166"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="C739" s="165"/>
+      <c r="C739" s="166"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="C740" s="165"/>
+      <c r="C740" s="166"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="C741" s="165"/>
+      <c r="C741" s="166"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="C742" s="165"/>
+      <c r="C742" s="166"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="C743" s="165"/>
+      <c r="C743" s="166"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="C744" s="165"/>
+      <c r="C744" s="166"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="C745" s="165"/>
+      <c r="C745" s="166"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="C746" s="165"/>
+      <c r="C746" s="166"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="C747" s="165"/>
+      <c r="C747" s="166"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="C748" s="165"/>
+      <c r="C748" s="166"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="C749" s="165"/>
+      <c r="C749" s="166"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="C750" s="165"/>
+      <c r="C750" s="166"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="C751" s="165"/>
+      <c r="C751" s="166"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="C752" s="165"/>
+      <c r="C752" s="166"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="C753" s="165"/>
+      <c r="C753" s="166"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="C754" s="165"/>
+      <c r="C754" s="166"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="C755" s="165"/>
+      <c r="C755" s="166"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="C756" s="165"/>
+      <c r="C756" s="166"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="C757" s="165"/>
+      <c r="C757" s="166"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="C758" s="165"/>
+      <c r="C758" s="166"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="C759" s="165"/>
+      <c r="C759" s="166"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="C760" s="165"/>
+      <c r="C760" s="166"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="C761" s="165"/>
+      <c r="C761" s="166"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="C762" s="165"/>
+      <c r="C762" s="166"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="C763" s="165"/>
+      <c r="C763" s="166"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="C764" s="165"/>
+      <c r="C764" s="166"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="C765" s="165"/>
+      <c r="C765" s="166"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="C766" s="165"/>
+      <c r="C766" s="166"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="C767" s="165"/>
+      <c r="C767" s="166"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="C768" s="165"/>
+      <c r="C768" s="166"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="C769" s="165"/>
+      <c r="C769" s="166"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="C770" s="165"/>
+      <c r="C770" s="166"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="C771" s="165"/>
+      <c r="C771" s="166"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="C772" s="165"/>
+      <c r="C772" s="166"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="C773" s="165"/>
+      <c r="C773" s="166"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="C774" s="165"/>
+      <c r="C774" s="166"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="C775" s="165"/>
+      <c r="C775" s="166"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="C776" s="165"/>
+      <c r="C776" s="166"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="C777" s="165"/>
+      <c r="C777" s="166"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="C778" s="165"/>
+      <c r="C778" s="166"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="C779" s="165"/>
+      <c r="C779" s="166"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="C780" s="165"/>
+      <c r="C780" s="166"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="C781" s="165"/>
+      <c r="C781" s="166"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="C782" s="165"/>
+      <c r="C782" s="166"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="C783" s="165"/>
+      <c r="C783" s="166"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="C784" s="165"/>
+      <c r="C784" s="166"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="C785" s="165"/>
+      <c r="C785" s="166"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="C786" s="165"/>
+      <c r="C786" s="166"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="C787" s="165"/>
+      <c r="C787" s="166"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="C788" s="165"/>
+      <c r="C788" s="166"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="C789" s="165"/>
+      <c r="C789" s="166"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="C790" s="165"/>
+      <c r="C790" s="166"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="C791" s="165"/>
+      <c r="C791" s="166"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="C792" s="165"/>
+      <c r="C792" s="166"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="C793" s="165"/>
+      <c r="C793" s="166"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="C794" s="165"/>
+      <c r="C794" s="166"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="C795" s="165"/>
+      <c r="C795" s="166"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="C796" s="165"/>
+      <c r="C796" s="166"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="C797" s="165"/>
+      <c r="C797" s="166"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="C798" s="165"/>
+      <c r="C798" s="166"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="C799" s="165"/>
+      <c r="C799" s="166"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="C800" s="165"/>
+      <c r="C800" s="166"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="C801" s="165"/>
+      <c r="C801" s="166"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="C802" s="165"/>
+      <c r="C802" s="166"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="C803" s="165"/>
+      <c r="C803" s="166"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="C804" s="165"/>
+      <c r="C804" s="166"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="C805" s="165"/>
+      <c r="C805" s="166"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="C806" s="165"/>
+      <c r="C806" s="166"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="C807" s="165"/>
+      <c r="C807" s="166"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="C808" s="165"/>
+      <c r="C808" s="166"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="C809" s="165"/>
+      <c r="C809" s="166"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="C810" s="165"/>
+      <c r="C810" s="166"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="C811" s="165"/>
+      <c r="C811" s="166"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="C812" s="165"/>
+      <c r="C812" s="166"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="C813" s="165"/>
+      <c r="C813" s="166"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="C814" s="165"/>
+      <c r="C814" s="166"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="C815" s="165"/>
+      <c r="C815" s="166"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="C816" s="165"/>
+      <c r="C816" s="166"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="C817" s="165"/>
+      <c r="C817" s="166"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="C818" s="165"/>
+      <c r="C818" s="166"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="C819" s="165"/>
+      <c r="C819" s="166"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="C820" s="165"/>
+      <c r="C820" s="166"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="C821" s="165"/>
+      <c r="C821" s="166"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="C822" s="165"/>
+      <c r="C822" s="166"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="C823" s="165"/>
+      <c r="C823" s="166"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="C824" s="165"/>
+      <c r="C824" s="166"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="C825" s="165"/>
+      <c r="C825" s="166"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="C826" s="165"/>
+      <c r="C826" s="166"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="C827" s="165"/>
+      <c r="C827" s="166"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="C828" s="165"/>
+      <c r="C828" s="166"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="C829" s="165"/>
+      <c r="C829" s="166"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="C830" s="165"/>
+      <c r="C830" s="166"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="C831" s="165"/>
+      <c r="C831" s="166"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="C832" s="165"/>
+      <c r="C832" s="166"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="C833" s="165"/>
+      <c r="C833" s="166"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="C834" s="165"/>
+      <c r="C834" s="166"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="C835" s="165"/>
+      <c r="C835" s="166"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="C836" s="165"/>
+      <c r="C836" s="166"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="C837" s="165"/>
+      <c r="C837" s="166"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="C838" s="165"/>
+      <c r="C838" s="166"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="C839" s="165"/>
+      <c r="C839" s="166"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="C840" s="165"/>
+      <c r="C840" s="166"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="C841" s="165"/>
+      <c r="C841" s="166"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="C842" s="165"/>
+      <c r="C842" s="166"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="C843" s="165"/>
+      <c r="C843" s="166"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="C844" s="165"/>
+      <c r="C844" s="166"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="C845" s="165"/>
+      <c r="C845" s="166"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="C846" s="165"/>
+      <c r="C846" s="166"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="C847" s="165"/>
+      <c r="C847" s="166"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="C848" s="165"/>
+      <c r="C848" s="166"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="C849" s="165"/>
+      <c r="C849" s="166"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="C850" s="165"/>
+      <c r="C850" s="166"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="C851" s="165"/>
+      <c r="C851" s="166"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="C852" s="165"/>
+      <c r="C852" s="166"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="C853" s="165"/>
+      <c r="C853" s="166"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="C854" s="165"/>
+      <c r="C854" s="166"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="C855" s="165"/>
+      <c r="C855" s="166"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="C856" s="165"/>
+      <c r="C856" s="166"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="C857" s="165"/>
+      <c r="C857" s="166"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="C858" s="165"/>
+      <c r="C858" s="166"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="C859" s="165"/>
+      <c r="C859" s="166"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="C860" s="165"/>
+      <c r="C860" s="166"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="C861" s="165"/>
+      <c r="C861" s="166"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="C862" s="165"/>
+      <c r="C862" s="166"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="C863" s="165"/>
+      <c r="C863" s="166"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="C864" s="165"/>
+      <c r="C864" s="166"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="C865" s="165"/>
+      <c r="C865" s="166"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="C866" s="165"/>
+      <c r="C866" s="166"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="C867" s="165"/>
+      <c r="C867" s="166"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="C868" s="165"/>
+      <c r="C868" s="166"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="C869" s="165"/>
+      <c r="C869" s="166"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="C870" s="165"/>
+      <c r="C870" s="166"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="C871" s="165"/>
+      <c r="C871" s="166"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="C872" s="165"/>
+      <c r="C872" s="166"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="C873" s="165"/>
+      <c r="C873" s="166"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="C874" s="165"/>
+      <c r="C874" s="166"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="C875" s="165"/>
+      <c r="C875" s="166"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="C876" s="165"/>
+      <c r="C876" s="166"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="C877" s="165"/>
+      <c r="C877" s="166"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="C878" s="165"/>
+      <c r="C878" s="166"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="C879" s="165"/>
+      <c r="C879" s="166"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="C880" s="165"/>
+      <c r="C880" s="166"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="C881" s="165"/>
+      <c r="C881" s="166"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="C882" s="165"/>
+      <c r="C882" s="166"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="C883" s="165"/>
+      <c r="C883" s="166"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="C884" s="165"/>
+      <c r="C884" s="166"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="C885" s="165"/>
+      <c r="C885" s="166"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="C886" s="165"/>
+      <c r="C886" s="166"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="C887" s="165"/>
+      <c r="C887" s="166"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="C888" s="165"/>
+      <c r="C888" s="166"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="C889" s="165"/>
+      <c r="C889" s="166"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="C890" s="165"/>
+      <c r="C890" s="166"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="C891" s="165"/>
+      <c r="C891" s="166"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="C892" s="165"/>
+      <c r="C892" s="166"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="C893" s="165"/>
+      <c r="C893" s="166"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="C894" s="165"/>
+      <c r="C894" s="166"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="C895" s="165"/>
+      <c r="C895" s="166"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="C896" s="165"/>
+      <c r="C896" s="166"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="C897" s="165"/>
+      <c r="C897" s="166"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="C898" s="165"/>
+      <c r="C898" s="166"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="C899" s="165"/>
+      <c r="C899" s="166"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="C900" s="165"/>
+      <c r="C900" s="166"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="C901" s="165"/>
+      <c r="C901" s="166"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="C902" s="165"/>
+      <c r="C902" s="166"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="C903" s="165"/>
+      <c r="C903" s="166"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="C904" s="165"/>
+      <c r="C904" s="166"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="C905" s="165"/>
+      <c r="C905" s="166"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="C906" s="165"/>
+      <c r="C906" s="166"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="C907" s="165"/>
+      <c r="C907" s="166"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="C908" s="165"/>
+      <c r="C908" s="166"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="C909" s="165"/>
+      <c r="C909" s="166"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="C910" s="165"/>
+      <c r="C910" s="166"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="C911" s="165"/>
+      <c r="C911" s="166"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="C912" s="165"/>
+      <c r="C912" s="166"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="C913" s="165"/>
+      <c r="C913" s="166"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="C914" s="165"/>
+      <c r="C914" s="166"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="C915" s="165"/>
+      <c r="C915" s="166"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="C916" s="165"/>
+      <c r="C916" s="166"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="C917" s="165"/>
+      <c r="C917" s="166"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="C918" s="165"/>
+      <c r="C918" s="166"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="C919" s="165"/>
+      <c r="C919" s="166"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="C920" s="165"/>
+      <c r="C920" s="166"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="C921" s="165"/>
+      <c r="C921" s="166"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="C922" s="165"/>
+      <c r="C922" s="166"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="C923" s="165"/>
+      <c r="C923" s="166"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="C924" s="165"/>
+      <c r="C924" s="166"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="C925" s="165"/>
+      <c r="C925" s="166"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="C926" s="165"/>
+      <c r="C926" s="166"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="C927" s="165"/>
+      <c r="C927" s="166"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="C928" s="165"/>
+      <c r="C928" s="166"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="C929" s="165"/>
+      <c r="C929" s="166"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="C930" s="165"/>
+      <c r="C930" s="166"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="C931" s="165"/>
+      <c r="C931" s="166"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="C932" s="165"/>
+      <c r="C932" s="166"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="C933" s="165"/>
+      <c r="C933" s="166"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="C934" s="165"/>
+      <c r="C934" s="166"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="C935" s="165"/>
+      <c r="C935" s="166"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="C936" s="165"/>
+      <c r="C936" s="166"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="C937" s="165"/>
+      <c r="C937" s="166"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="C938" s="165"/>
+      <c r="C938" s="166"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="C939" s="165"/>
+      <c r="C939" s="166"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="C940" s="165"/>
+      <c r="C940" s="166"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="C941" s="165"/>
+      <c r="C941" s="166"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="C942" s="165"/>
+      <c r="C942" s="166"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="C943" s="165"/>
+      <c r="C943" s="166"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="C944" s="165"/>
+      <c r="C944" s="166"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="C945" s="165"/>
+      <c r="C945" s="166"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="C946" s="165"/>
+      <c r="C946" s="166"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="C947" s="165"/>
+      <c r="C947" s="166"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="C948" s="165"/>
+      <c r="C948" s="166"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="C949" s="165"/>
+      <c r="C949" s="166"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="C950" s="165"/>
+      <c r="C950" s="166"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="C951" s="165"/>
+      <c r="C951" s="166"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="C952" s="165"/>
+      <c r="C952" s="166"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="C953" s="165"/>
+      <c r="C953" s="166"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="C954" s="165"/>
+      <c r="C954" s="166"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="C955" s="165"/>
+      <c r="C955" s="166"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="C956" s="165"/>
+      <c r="C956" s="166"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="C957" s="165"/>
+      <c r="C957" s="166"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="C958" s="165"/>
+      <c r="C958" s="166"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="C959" s="165"/>
+      <c r="C959" s="166"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="C960" s="165"/>
+      <c r="C960" s="166"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="C961" s="165"/>
+      <c r="C961" s="166"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="C962" s="165"/>
+      <c r="C962" s="166"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="C963" s="165"/>
+      <c r="C963" s="166"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="C964" s="165"/>
+      <c r="C964" s="166"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="C965" s="165"/>
+      <c r="C965" s="166"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="C966" s="165"/>
+      <c r="C966" s="166"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="C967" s="165"/>
+      <c r="C967" s="166"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="C968" s="165"/>
+      <c r="C968" s="166"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="C969" s="165"/>
+      <c r="C969" s="166"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="C970" s="165"/>
+      <c r="C970" s="166"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="C971" s="165"/>
+      <c r="C971" s="166"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="C972" s="165"/>
+      <c r="C972" s="166"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="C973" s="165"/>
+      <c r="C973" s="166"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="C974" s="165"/>
+      <c r="C974" s="166"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="C975" s="165"/>
+      <c r="C975" s="166"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="C976" s="165"/>
+      <c r="C976" s="166"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="C977" s="165"/>
+      <c r="C977" s="166"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="C978" s="165"/>
+      <c r="C978" s="166"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="C979" s="165"/>
+      <c r="C979" s="166"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="C980" s="165"/>
+      <c r="C980" s="166"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="C981" s="165"/>
+      <c r="C981" s="166"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="C982" s="165"/>
+      <c r="C982" s="166"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="C983" s="165"/>
+      <c r="C983" s="166"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="C984" s="165"/>
+      <c r="C984" s="166"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="C985" s="165"/>
+      <c r="C985" s="166"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="C986" s="165"/>
+      <c r="C986" s="166"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="C987" s="165"/>
+      <c r="C987" s="166"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="C988" s="165"/>
+      <c r="C988" s="166"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="C989" s="165"/>
+      <c r="C989" s="166"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="C990" s="165"/>
+      <c r="C990" s="166"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="C991" s="165"/>
+      <c r="C991" s="166"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="C992" s="165"/>
+      <c r="C992" s="166"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="C993" s="165"/>
+      <c r="C993" s="166"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="C994" s="165"/>
+      <c r="C994" s="166"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="C995" s="165"/>
+      <c r="C995" s="166"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="C996" s="165"/>
+      <c r="C996" s="166"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="C997" s="165"/>
+      <c r="C997" s="166"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="C998" s="165"/>
+      <c r="C998" s="166"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="C999" s="165"/>
+      <c r="C999" s="166"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="C1000" s="165"/>
+      <c r="C1000" s="166"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$105:$E$111"/>
@@ -25444,7 +25447,7 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="166"/>
+      <c r="F1" s="167"/>
       <c r="G1" s="18"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -25453,7 +25456,7 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="166"/>
+      <c r="F2" s="167"/>
       <c r="G2" s="18"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -25462,895 +25465,895 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="166"/>
+      <c r="F3" s="167"/>
       <c r="G3" s="18"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="168" t="s">
         <v>399</v>
       </c>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="169" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="169" t="s">
         <v>401</v>
       </c>
-      <c r="E4" s="169" t="s">
+      <c r="E4" s="170" t="s">
         <v>402</v>
       </c>
-      <c r="F4" s="170" t="s">
+      <c r="F4" s="171" t="s">
         <v>403</v>
       </c>
-      <c r="G4" s="168" t="s">
+      <c r="G4" s="169" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="E5" s="171"/>
-      <c r="F5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="173"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="E6" s="171"/>
-      <c r="F6" s="173"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="174"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="E7" s="171"/>
-      <c r="F7" s="173"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="174"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="E8" s="171"/>
-      <c r="F8" s="173"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="174"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="E9" s="171"/>
-      <c r="F9" s="173"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="174"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="E10" s="171"/>
-      <c r="F10" s="173"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="174"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="E11" s="171"/>
-      <c r="F11" s="173"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="174"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="E12" s="171"/>
-      <c r="F12" s="173"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="174"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="E13" s="171"/>
-      <c r="F13" s="173"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="174"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="E14" s="171"/>
-      <c r="F14" s="173"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="174"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="E15" s="171"/>
-      <c r="F15" s="173"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="174"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="E16" s="171"/>
-      <c r="F16" s="173"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="174"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="E17" s="171"/>
-      <c r="F17" s="173"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="174"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="E18" s="171"/>
-      <c r="F18" s="173"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="174"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="E19" s="171"/>
-      <c r="F19" s="173"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="174"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="E20" s="171"/>
-      <c r="F20" s="173"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="174"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="E21" s="171"/>
-      <c r="F21" s="173"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="174"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="E22" s="171"/>
-      <c r="F22" s="173"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="174"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="E23" s="171"/>
-      <c r="F23" s="173"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="174"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="E24" s="171"/>
-      <c r="F24" s="173"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="174"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="E25" s="171"/>
-      <c r="F25" s="173"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="174"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="E26" s="171"/>
-      <c r="F26" s="173"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="174"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="E27" s="171"/>
-      <c r="F27" s="173"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="174"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="E28" s="171"/>
-      <c r="F28" s="173"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="174"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="E29" s="171"/>
-      <c r="F29" s="173"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="174"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="E30" s="171"/>
-      <c r="F30" s="173"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="174"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="E31" s="171"/>
-      <c r="F31" s="173"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="174"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="E32" s="171"/>
-      <c r="F32" s="173"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="174"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="E33" s="171"/>
-      <c r="F33" s="173"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="174"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="E34" s="171"/>
-      <c r="F34" s="173"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="174"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="E35" s="171"/>
-      <c r="F35" s="173"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="174"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="E36" s="171"/>
-      <c r="F36" s="173"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="174"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="E37" s="171"/>
-      <c r="F37" s="173"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="174"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="E38" s="171"/>
-      <c r="F38" s="173"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="174"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="E39" s="171"/>
-      <c r="F39" s="173"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="174"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="E40" s="171"/>
-      <c r="F40" s="173"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="174"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="E41" s="171"/>
-      <c r="F41" s="173"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="174"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="E42" s="171"/>
-      <c r="F42" s="173"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="174"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="E43" s="171"/>
-      <c r="F43" s="173"/>
+      <c r="E43" s="172"/>
+      <c r="F43" s="174"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="E44" s="171"/>
-      <c r="F44" s="173"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="174"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="E45" s="171"/>
-      <c r="F45" s="173"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="174"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="E46" s="171"/>
-      <c r="F46" s="173"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="174"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="E47" s="171"/>
-      <c r="F47" s="173"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="174"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="E48" s="171"/>
-      <c r="F48" s="173"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="174"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="E49" s="171"/>
-      <c r="F49" s="173"/>
+      <c r="E49" s="172"/>
+      <c r="F49" s="174"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="E50" s="171"/>
-      <c r="F50" s="173"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="174"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="E51" s="171"/>
-      <c r="F51" s="173"/>
+      <c r="E51" s="172"/>
+      <c r="F51" s="174"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="E52" s="171"/>
-      <c r="F52" s="173"/>
+      <c r="E52" s="172"/>
+      <c r="F52" s="174"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="E53" s="171"/>
-      <c r="F53" s="173"/>
+      <c r="E53" s="172"/>
+      <c r="F53" s="174"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="E54" s="171"/>
-      <c r="F54" s="173"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="174"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="E55" s="174"/>
-      <c r="F55" s="175"/>
+      <c r="E55" s="175"/>
+      <c r="F55" s="176"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="E56" s="174"/>
-      <c r="F56" s="175"/>
+      <c r="E56" s="175"/>
+      <c r="F56" s="176"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="E57" s="174"/>
-      <c r="F57" s="175"/>
+      <c r="E57" s="175"/>
+      <c r="F57" s="176"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="E58" s="174"/>
-      <c r="F58" s="175"/>
+      <c r="E58" s="175"/>
+      <c r="F58" s="176"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="E59" s="174"/>
-      <c r="F59" s="175"/>
+      <c r="E59" s="175"/>
+      <c r="F59" s="176"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="E60" s="174"/>
-      <c r="F60" s="175"/>
+      <c r="E60" s="175"/>
+      <c r="F60" s="176"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="E61" s="174"/>
-      <c r="F61" s="175"/>
+      <c r="E61" s="175"/>
+      <c r="F61" s="176"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="E62" s="174"/>
-      <c r="F62" s="175"/>
+      <c r="E62" s="175"/>
+      <c r="F62" s="176"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="E63" s="174"/>
-      <c r="F63" s="175"/>
+      <c r="E63" s="175"/>
+      <c r="F63" s="176"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="E64" s="174"/>
-      <c r="F64" s="175"/>
+      <c r="E64" s="175"/>
+      <c r="F64" s="176"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="E65" s="174"/>
-      <c r="F65" s="175"/>
+      <c r="E65" s="175"/>
+      <c r="F65" s="176"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="E66" s="174"/>
-      <c r="F66" s="175"/>
+      <c r="E66" s="175"/>
+      <c r="F66" s="176"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="E67" s="174"/>
-      <c r="F67" s="175"/>
+      <c r="E67" s="175"/>
+      <c r="F67" s="176"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="E68" s="174"/>
-      <c r="F68" s="175"/>
+      <c r="E68" s="175"/>
+      <c r="F68" s="176"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="E69" s="174"/>
-      <c r="F69" s="175"/>
+      <c r="E69" s="175"/>
+      <c r="F69" s="176"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="E70" s="174"/>
-      <c r="F70" s="175"/>
+      <c r="E70" s="175"/>
+      <c r="F70" s="176"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="E71" s="174"/>
-      <c r="F71" s="175"/>
+      <c r="E71" s="175"/>
+      <c r="F71" s="176"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="E72" s="174"/>
-      <c r="F72" s="175"/>
+      <c r="E72" s="175"/>
+      <c r="F72" s="176"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="E73" s="174"/>
-      <c r="F73" s="175"/>
+      <c r="E73" s="175"/>
+      <c r="F73" s="176"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="E74" s="174"/>
-      <c r="F74" s="175"/>
+      <c r="E74" s="175"/>
+      <c r="F74" s="176"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="E75" s="174"/>
-      <c r="F75" s="175"/>
+      <c r="E75" s="175"/>
+      <c r="F75" s="176"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="E76" s="174"/>
-      <c r="F76" s="175"/>
+      <c r="E76" s="175"/>
+      <c r="F76" s="176"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="E77" s="174"/>
-      <c r="F77" s="175"/>
+      <c r="E77" s="175"/>
+      <c r="F77" s="176"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="E78" s="174"/>
-      <c r="F78" s="175"/>
+      <c r="E78" s="175"/>
+      <c r="F78" s="176"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="E79" s="174"/>
-      <c r="F79" s="175"/>
+      <c r="E79" s="175"/>
+      <c r="F79" s="176"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="E80" s="174"/>
-      <c r="F80" s="175"/>
+      <c r="E80" s="175"/>
+      <c r="F80" s="176"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="E81" s="174"/>
-      <c r="F81" s="175"/>
+      <c r="E81" s="175"/>
+      <c r="F81" s="176"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="E82" s="174"/>
-      <c r="F82" s="175"/>
+      <c r="E82" s="175"/>
+      <c r="F82" s="176"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="E83" s="174"/>
-      <c r="F83" s="175"/>
+      <c r="E83" s="175"/>
+      <c r="F83" s="176"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="E84" s="174"/>
-      <c r="F84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="176"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="E85" s="174"/>
-      <c r="F85" s="175"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="176"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="E86" s="174"/>
-      <c r="F86" s="175"/>
+      <c r="E86" s="175"/>
+      <c r="F86" s="176"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="E87" s="174"/>
-      <c r="F87" s="175"/>
+      <c r="E87" s="175"/>
+      <c r="F87" s="176"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="E88" s="174"/>
-      <c r="F88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="176"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="E89" s="174"/>
-      <c r="F89" s="175"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="176"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="E90" s="174"/>
-      <c r="F90" s="175"/>
+      <c r="E90" s="175"/>
+      <c r="F90" s="176"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="E91" s="174"/>
-      <c r="F91" s="175"/>
+      <c r="E91" s="175"/>
+      <c r="F91" s="176"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="E92" s="174"/>
-      <c r="F92" s="175"/>
+      <c r="E92" s="175"/>
+      <c r="F92" s="176"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="E93" s="174"/>
-      <c r="F93" s="175"/>
+      <c r="E93" s="175"/>
+      <c r="F93" s="176"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="E94" s="174"/>
-      <c r="F94" s="175"/>
+      <c r="E94" s="175"/>
+      <c r="F94" s="176"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="E95" s="174"/>
-      <c r="F95" s="175"/>
+      <c r="E95" s="175"/>
+      <c r="F95" s="176"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="E96" s="174"/>
-      <c r="F96" s="175"/>
+      <c r="E96" s="175"/>
+      <c r="F96" s="176"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="E97" s="174"/>
-      <c r="F97" s="175"/>
+      <c r="E97" s="175"/>
+      <c r="F97" s="176"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="E98" s="174"/>
-      <c r="F98" s="175"/>
+      <c r="E98" s="175"/>
+      <c r="F98" s="176"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="E99" s="174"/>
-      <c r="F99" s="175"/>
+      <c r="E99" s="175"/>
+      <c r="F99" s="176"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="E100" s="174"/>
-      <c r="F100" s="175"/>
+      <c r="E100" s="175"/>
+      <c r="F100" s="176"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="E101" s="174"/>
-      <c r="F101" s="175"/>
+      <c r="E101" s="175"/>
+      <c r="F101" s="176"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="E102" s="174"/>
-      <c r="F102" s="175"/>
+      <c r="E102" s="175"/>
+      <c r="F102" s="176"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="E103" s="174"/>
-      <c r="F103" s="175"/>
+      <c r="E103" s="175"/>
+      <c r="F103" s="176"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="E104" s="174"/>
-      <c r="F104" s="175"/>
+      <c r="E104" s="175"/>
+      <c r="F104" s="176"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="E105" s="174"/>
-      <c r="F105" s="175"/>
+      <c r="E105" s="175"/>
+      <c r="F105" s="176"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="E106" s="174"/>
-      <c r="F106" s="175"/>
+      <c r="E106" s="175"/>
+      <c r="F106" s="176"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="E107" s="174"/>
-      <c r="F107" s="175"/>
+      <c r="E107" s="175"/>
+      <c r="F107" s="176"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="E108" s="174"/>
-      <c r="F108" s="175"/>
+      <c r="E108" s="175"/>
+      <c r="F108" s="176"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="E109" s="174"/>
-      <c r="F109" s="175"/>
+      <c r="E109" s="175"/>
+      <c r="F109" s="176"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="E110" s="174"/>
-      <c r="F110" s="175"/>
+      <c r="E110" s="175"/>
+      <c r="F110" s="176"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="E111" s="174"/>
-      <c r="F111" s="175"/>
+      <c r="E111" s="175"/>
+      <c r="F111" s="176"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="E112" s="174"/>
-      <c r="F112" s="175"/>
+      <c r="E112" s="175"/>
+      <c r="F112" s="176"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="E113" s="174"/>
-      <c r="F113" s="175"/>
+      <c r="E113" s="175"/>
+      <c r="F113" s="176"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="E114" s="174"/>
-      <c r="F114" s="175"/>
+      <c r="E114" s="175"/>
+      <c r="F114" s="176"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="E115" s="174"/>
-      <c r="F115" s="175"/>
+      <c r="E115" s="175"/>
+      <c r="F115" s="176"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="E116" s="174"/>
-      <c r="F116" s="175"/>
+      <c r="E116" s="175"/>
+      <c r="F116" s="176"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="E117" s="174"/>
-      <c r="F117" s="175"/>
+      <c r="E117" s="175"/>
+      <c r="F117" s="176"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="E118" s="174"/>
-      <c r="F118" s="175"/>
+      <c r="E118" s="175"/>
+      <c r="F118" s="176"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="E119" s="174"/>
-      <c r="F119" s="175"/>
+      <c r="E119" s="175"/>
+      <c r="F119" s="176"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="E120" s="174"/>
-      <c r="F120" s="175"/>
+      <c r="E120" s="175"/>
+      <c r="F120" s="176"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="E121" s="174"/>
-      <c r="F121" s="175"/>
+      <c r="E121" s="175"/>
+      <c r="F121" s="176"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="E122" s="174"/>
-      <c r="F122" s="175"/>
+      <c r="E122" s="175"/>
+      <c r="F122" s="176"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="E123" s="174"/>
-      <c r="F123" s="175"/>
+      <c r="E123" s="175"/>
+      <c r="F123" s="176"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="E124" s="174"/>
-      <c r="F124" s="175"/>
+      <c r="E124" s="175"/>
+      <c r="F124" s="176"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="E125" s="174"/>
-      <c r="F125" s="175"/>
+      <c r="E125" s="175"/>
+      <c r="F125" s="176"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="E126" s="174"/>
-      <c r="F126" s="175"/>
+      <c r="E126" s="175"/>
+      <c r="F126" s="176"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="E127" s="174"/>
-      <c r="F127" s="175"/>
+      <c r="E127" s="175"/>
+      <c r="F127" s="176"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="E128" s="174"/>
-      <c r="F128" s="175"/>
+      <c r="E128" s="175"/>
+      <c r="F128" s="176"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="E129" s="174"/>
-      <c r="F129" s="175"/>
+      <c r="E129" s="175"/>
+      <c r="F129" s="176"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="E130" s="174"/>
-      <c r="F130" s="175"/>
+      <c r="E130" s="175"/>
+      <c r="F130" s="176"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="E131" s="174"/>
-      <c r="F131" s="175"/>
+      <c r="E131" s="175"/>
+      <c r="F131" s="176"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="E132" s="174"/>
-      <c r="F132" s="175"/>
+      <c r="E132" s="175"/>
+      <c r="F132" s="176"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="E133" s="174"/>
-      <c r="F133" s="175"/>
+      <c r="E133" s="175"/>
+      <c r="F133" s="176"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="E134" s="174"/>
-      <c r="F134" s="175"/>
+      <c r="E134" s="175"/>
+      <c r="F134" s="176"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="E135" s="174"/>
-      <c r="F135" s="175"/>
+      <c r="E135" s="175"/>
+      <c r="F135" s="176"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="E136" s="174"/>
-      <c r="F136" s="175"/>
+      <c r="E136" s="175"/>
+      <c r="F136" s="176"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="E137" s="174"/>
-      <c r="F137" s="175"/>
+      <c r="E137" s="175"/>
+      <c r="F137" s="176"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="E138" s="174"/>
-      <c r="F138" s="175"/>
+      <c r="E138" s="175"/>
+      <c r="F138" s="176"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="E139" s="174"/>
-      <c r="F139" s="175"/>
+      <c r="E139" s="175"/>
+      <c r="F139" s="176"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="E140" s="174"/>
-      <c r="F140" s="175"/>
+      <c r="E140" s="175"/>
+      <c r="F140" s="176"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="E141" s="174"/>
-      <c r="F141" s="175"/>
+      <c r="E141" s="175"/>
+      <c r="F141" s="176"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="E142" s="174"/>
-      <c r="F142" s="175"/>
+      <c r="E142" s="175"/>
+      <c r="F142" s="176"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="E143" s="174"/>
-      <c r="F143" s="175"/>
+      <c r="E143" s="175"/>
+      <c r="F143" s="176"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="E144" s="174"/>
-      <c r="F144" s="175"/>
+      <c r="E144" s="175"/>
+      <c r="F144" s="176"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="E145" s="174"/>
-      <c r="F145" s="175"/>
+      <c r="E145" s="175"/>
+      <c r="F145" s="176"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="E146" s="174"/>
-      <c r="F146" s="175"/>
+      <c r="E146" s="175"/>
+      <c r="F146" s="176"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="E147" s="174"/>
-      <c r="F147" s="175"/>
+      <c r="E147" s="175"/>
+      <c r="F147" s="176"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="E148" s="174"/>
-      <c r="F148" s="175"/>
+      <c r="E148" s="175"/>
+      <c r="F148" s="176"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="E149" s="174"/>
-      <c r="F149" s="175"/>
+      <c r="E149" s="175"/>
+      <c r="F149" s="176"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="E150" s="174"/>
-      <c r="F150" s="175"/>
+      <c r="E150" s="175"/>
+      <c r="F150" s="176"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="E151" s="174"/>
-      <c r="F151" s="175"/>
+      <c r="E151" s="175"/>
+      <c r="F151" s="176"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="E152" s="174"/>
-      <c r="F152" s="175"/>
+      <c r="E152" s="175"/>
+      <c r="F152" s="176"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="E153" s="174"/>
-      <c r="F153" s="175"/>
+      <c r="E153" s="175"/>
+      <c r="F153" s="176"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="E154" s="174"/>
-      <c r="F154" s="175"/>
+      <c r="E154" s="175"/>
+      <c r="F154" s="176"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="E155" s="174"/>
-      <c r="F155" s="175"/>
+      <c r="E155" s="175"/>
+      <c r="F155" s="176"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="E156" s="174"/>
-      <c r="F156" s="175"/>
+      <c r="E156" s="175"/>
+      <c r="F156" s="176"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="E157" s="174"/>
-      <c r="F157" s="175"/>
+      <c r="E157" s="175"/>
+      <c r="F157" s="176"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="E158" s="174"/>
-      <c r="F158" s="175"/>
+      <c r="E158" s="175"/>
+      <c r="F158" s="176"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="E159" s="174"/>
-      <c r="F159" s="175"/>
+      <c r="E159" s="175"/>
+      <c r="F159" s="176"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="E160" s="174"/>
-      <c r="F160" s="175"/>
+      <c r="E160" s="175"/>
+      <c r="F160" s="176"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="E161" s="174"/>
-      <c r="F161" s="175"/>
+      <c r="E161" s="175"/>
+      <c r="F161" s="176"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="E162" s="174"/>
-      <c r="F162" s="175"/>
+      <c r="E162" s="175"/>
+      <c r="F162" s="176"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="E163" s="174"/>
-      <c r="F163" s="175"/>
+      <c r="E163" s="175"/>
+      <c r="F163" s="176"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="E164" s="174"/>
-      <c r="F164" s="175"/>
+      <c r="E164" s="175"/>
+      <c r="F164" s="176"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="E165" s="174"/>
-      <c r="F165" s="175"/>
+      <c r="E165" s="175"/>
+      <c r="F165" s="176"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="E166" s="174"/>
-      <c r="F166" s="175"/>
+      <c r="E166" s="175"/>
+      <c r="F166" s="176"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="E167" s="174"/>
-      <c r="F167" s="175"/>
+      <c r="E167" s="175"/>
+      <c r="F167" s="176"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="E168" s="174"/>
-      <c r="F168" s="175"/>
+      <c r="E168" s="175"/>
+      <c r="F168" s="176"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="E169" s="174"/>
-      <c r="F169" s="175"/>
+      <c r="E169" s="175"/>
+      <c r="F169" s="176"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="E170" s="174"/>
-      <c r="F170" s="175"/>
+      <c r="E170" s="175"/>
+      <c r="F170" s="176"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="E171" s="174"/>
-      <c r="F171" s="175"/>
+      <c r="E171" s="175"/>
+      <c r="F171" s="176"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="E172" s="174"/>
-      <c r="F172" s="175"/>
+      <c r="E172" s="175"/>
+      <c r="F172" s="176"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="E173" s="174"/>
-      <c r="F173" s="175"/>
+      <c r="E173" s="175"/>
+      <c r="F173" s="176"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="E174" s="174"/>
-      <c r="F174" s="175"/>
+      <c r="E174" s="175"/>
+      <c r="F174" s="176"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="E175" s="174"/>
-      <c r="F175" s="175"/>
+      <c r="E175" s="175"/>
+      <c r="F175" s="176"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="E176" s="174"/>
-      <c r="F176" s="175"/>
+      <c r="E176" s="175"/>
+      <c r="F176" s="176"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="E177" s="174"/>
-      <c r="F177" s="175"/>
+      <c r="E177" s="175"/>
+      <c r="F177" s="176"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="E178" s="174"/>
-      <c r="F178" s="175"/>
+      <c r="E178" s="175"/>
+      <c r="F178" s="176"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="E179" s="174"/>
-      <c r="F179" s="175"/>
+      <c r="E179" s="175"/>
+      <c r="F179" s="176"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="E180" s="174"/>
-      <c r="F180" s="175"/>
+      <c r="E180" s="175"/>
+      <c r="F180" s="176"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="E181" s="174"/>
-      <c r="F181" s="175"/>
+      <c r="E181" s="175"/>
+      <c r="F181" s="176"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="E182" s="174"/>
-      <c r="F182" s="175"/>
+      <c r="E182" s="175"/>
+      <c r="F182" s="176"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="E183" s="174"/>
-      <c r="F183" s="175"/>
+      <c r="E183" s="175"/>
+      <c r="F183" s="176"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="E184" s="174"/>
-      <c r="F184" s="175"/>
+      <c r="E184" s="175"/>
+      <c r="F184" s="176"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="E185" s="174"/>
-      <c r="F185" s="175"/>
+      <c r="E185" s="175"/>
+      <c r="F185" s="176"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="E186" s="174"/>
-      <c r="F186" s="175"/>
+      <c r="E186" s="175"/>
+      <c r="F186" s="176"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="E187" s="174"/>
-      <c r="F187" s="175"/>
+      <c r="E187" s="175"/>
+      <c r="F187" s="176"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="E188" s="174"/>
-      <c r="F188" s="175"/>
+      <c r="E188" s="175"/>
+      <c r="F188" s="176"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="E189" s="174"/>
-      <c r="F189" s="175"/>
+      <c r="E189" s="175"/>
+      <c r="F189" s="176"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="E190" s="174"/>
-      <c r="F190" s="175"/>
+      <c r="E190" s="175"/>
+      <c r="F190" s="176"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="E191" s="174"/>
-      <c r="F191" s="175"/>
+      <c r="E191" s="175"/>
+      <c r="F191" s="176"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="E192" s="174"/>
-      <c r="F192" s="175"/>
+      <c r="E192" s="175"/>
+      <c r="F192" s="176"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="E193" s="174"/>
-      <c r="F193" s="175"/>
+      <c r="E193" s="175"/>
+      <c r="F193" s="176"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="E194" s="174"/>
-      <c r="F194" s="175"/>
+      <c r="E194" s="175"/>
+      <c r="F194" s="176"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="E195" s="174"/>
-      <c r="F195" s="175"/>
+      <c r="E195" s="175"/>
+      <c r="F195" s="176"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="E196" s="174"/>
-      <c r="F196" s="175"/>
+      <c r="E196" s="175"/>
+      <c r="F196" s="176"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="E197" s="174"/>
-      <c r="F197" s="175"/>
+      <c r="E197" s="175"/>
+      <c r="F197" s="176"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="E198" s="174"/>
-      <c r="F198" s="175"/>
+      <c r="E198" s="175"/>
+      <c r="F198" s="176"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="E199" s="174"/>
-      <c r="F199" s="175"/>
+      <c r="E199" s="175"/>
+      <c r="F199" s="176"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="E200" s="174"/>
-      <c r="F200" s="175"/>
+      <c r="E200" s="175"/>
+      <c r="F200" s="176"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="E201" s="174"/>
-      <c r="F201" s="175"/>
+      <c r="E201" s="175"/>
+      <c r="F201" s="176"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="E202" s="174"/>
-      <c r="F202" s="175"/>
+      <c r="E202" s="175"/>
+      <c r="F202" s="176"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="E203" s="174"/>
-      <c r="F203" s="175"/>
+      <c r="E203" s="175"/>
+      <c r="F203" s="176"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="E204" s="174"/>
-      <c r="F204" s="175"/>
+      <c r="E204" s="175"/>
+      <c r="F204" s="176"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="E205" s="174"/>
-      <c r="F205" s="175"/>
+      <c r="E205" s="175"/>
+      <c r="F205" s="176"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="E206" s="174"/>
-      <c r="F206" s="175"/>
+      <c r="E206" s="175"/>
+      <c r="F206" s="176"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="E207" s="174"/>
-      <c r="F207" s="175"/>
+      <c r="E207" s="175"/>
+      <c r="F207" s="176"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="E208" s="174"/>
-      <c r="F208" s="175"/>
+      <c r="E208" s="175"/>
+      <c r="F208" s="176"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="E209" s="174"/>
-      <c r="F209" s="175"/>
+      <c r="E209" s="175"/>
+      <c r="F209" s="176"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="E210" s="174"/>
-      <c r="F210" s="175"/>
+      <c r="E210" s="175"/>
+      <c r="F210" s="176"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="E211" s="174"/>
-      <c r="F211" s="175"/>
+      <c r="E211" s="175"/>
+      <c r="F211" s="176"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="E212" s="174"/>
-      <c r="F212" s="175"/>
+      <c r="E212" s="175"/>
+      <c r="F212" s="176"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="E213" s="174"/>
-      <c r="F213" s="175"/>
+      <c r="E213" s="175"/>
+      <c r="F213" s="176"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="E214" s="174"/>
-      <c r="F214" s="175"/>
+      <c r="E214" s="175"/>
+      <c r="F214" s="176"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="E215" s="174"/>
-      <c r="F215" s="175"/>
+      <c r="E215" s="175"/>
+      <c r="F215" s="176"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="E216" s="174"/>
-      <c r="F216" s="175"/>
+      <c r="E216" s="175"/>
+      <c r="F216" s="176"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="E217" s="174"/>
-      <c r="F217" s="175"/>
+      <c r="E217" s="175"/>
+      <c r="F217" s="176"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="E218" s="174"/>
-      <c r="F218" s="175"/>
+      <c r="E218" s="175"/>
+      <c r="F218" s="176"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="E219" s="174"/>
-      <c r="F219" s="175"/>
+      <c r="E219" s="175"/>
+      <c r="F219" s="176"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="E220" s="174"/>
-      <c r="F220" s="175"/>
+      <c r="E220" s="175"/>
+      <c r="F220" s="176"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -27170,7 +27173,7 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="166"/>
+      <c r="F1" s="167"/>
       <c r="G1" s="18"/>
     </row>
     <row r="2">
@@ -27179,7 +27182,7 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="166"/>
+      <c r="F2" s="167"/>
       <c r="G2" s="18"/>
     </row>
     <row r="3">
@@ -27188,895 +27191,895 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="166"/>
+      <c r="F3" s="167"/>
       <c r="G3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="177" t="s">
         <v>399</v>
       </c>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="169" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="169" t="s">
         <v>401</v>
       </c>
-      <c r="E4" s="169" t="s">
+      <c r="E4" s="170" t="s">
         <v>402</v>
       </c>
-      <c r="F4" s="170" t="s">
+      <c r="F4" s="171" t="s">
         <v>403</v>
       </c>
-      <c r="G4" s="177" t="s">
+      <c r="G4" s="178" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="5">
-      <c r="E5" s="171"/>
-      <c r="F5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="173"/>
     </row>
     <row r="6">
-      <c r="E6" s="171"/>
-      <c r="F6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="173"/>
     </row>
     <row r="7">
-      <c r="E7" s="171"/>
-      <c r="F7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="173"/>
     </row>
     <row r="8">
-      <c r="E8" s="171"/>
-      <c r="F8" s="173"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="174"/>
     </row>
     <row r="9">
-      <c r="E9" s="171"/>
-      <c r="F9" s="173"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="174"/>
     </row>
     <row r="10">
-      <c r="E10" s="171"/>
-      <c r="F10" s="173"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="174"/>
     </row>
     <row r="11">
-      <c r="E11" s="171"/>
-      <c r="F11" s="173"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="174"/>
     </row>
     <row r="12">
-      <c r="E12" s="171"/>
-      <c r="F12" s="173"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="174"/>
     </row>
     <row r="13">
-      <c r="E13" s="171"/>
-      <c r="F13" s="173"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="174"/>
     </row>
     <row r="14">
-      <c r="E14" s="171"/>
-      <c r="F14" s="173"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="174"/>
     </row>
     <row r="15">
-      <c r="E15" s="171"/>
-      <c r="F15" s="173"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="174"/>
     </row>
     <row r="16">
-      <c r="E16" s="171"/>
-      <c r="F16" s="173"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="174"/>
     </row>
     <row r="17">
-      <c r="E17" s="171"/>
-      <c r="F17" s="173"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="174"/>
     </row>
     <row r="18">
-      <c r="E18" s="171"/>
-      <c r="F18" s="173"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="174"/>
     </row>
     <row r="19">
-      <c r="E19" s="171"/>
-      <c r="F19" s="173"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="174"/>
     </row>
     <row r="20">
-      <c r="E20" s="171"/>
-      <c r="F20" s="173"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="174"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="E21" s="171"/>
-      <c r="F21" s="173"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="174"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="E22" s="171"/>
-      <c r="F22" s="173"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="174"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="E23" s="171"/>
-      <c r="F23" s="173"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="174"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="E24" s="171"/>
-      <c r="F24" s="173"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="174"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="E25" s="171"/>
-      <c r="F25" s="173"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="174"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="E26" s="171"/>
-      <c r="F26" s="173"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="174"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="E27" s="171"/>
-      <c r="F27" s="173"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="174"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="E28" s="171"/>
-      <c r="F28" s="173"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="174"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="E29" s="171"/>
-      <c r="F29" s="173"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="174"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="E30" s="171"/>
-      <c r="F30" s="173"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="174"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="E31" s="171"/>
-      <c r="F31" s="173"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="174"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="E32" s="171"/>
-      <c r="F32" s="173"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="174"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="E33" s="171"/>
-      <c r="F33" s="173"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="174"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="E34" s="171"/>
-      <c r="F34" s="173"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="174"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="E35" s="171"/>
-      <c r="F35" s="173"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="174"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="E36" s="171"/>
-      <c r="F36" s="173"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="174"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="E37" s="171"/>
-      <c r="F37" s="173"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="174"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="E38" s="171"/>
-      <c r="F38" s="173"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="174"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="E39" s="171"/>
-      <c r="F39" s="173"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="174"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="E40" s="171"/>
-      <c r="F40" s="173"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="174"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="E41" s="171"/>
-      <c r="F41" s="173"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="174"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="E42" s="171"/>
-      <c r="F42" s="173"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="174"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="E43" s="171"/>
-      <c r="F43" s="173"/>
+      <c r="E43" s="172"/>
+      <c r="F43" s="174"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="E44" s="171"/>
-      <c r="F44" s="173"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="174"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="E45" s="171"/>
-      <c r="F45" s="173"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="174"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="E46" s="171"/>
-      <c r="F46" s="173"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="174"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="E47" s="171"/>
-      <c r="F47" s="173"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="174"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="E48" s="171"/>
-      <c r="F48" s="173"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="174"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="E49" s="171"/>
-      <c r="F49" s="173"/>
+      <c r="E49" s="172"/>
+      <c r="F49" s="174"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="E50" s="171"/>
-      <c r="F50" s="173"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="174"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="E51" s="171"/>
-      <c r="F51" s="173"/>
+      <c r="E51" s="172"/>
+      <c r="F51" s="174"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="E52" s="171"/>
-      <c r="F52" s="173"/>
+      <c r="E52" s="172"/>
+      <c r="F52" s="174"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="E53" s="171"/>
-      <c r="F53" s="173"/>
+      <c r="E53" s="172"/>
+      <c r="F53" s="174"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="E54" s="171"/>
-      <c r="F54" s="173"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="174"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="E55" s="171"/>
-      <c r="F55" s="173"/>
+      <c r="E55" s="172"/>
+      <c r="F55" s="174"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="E56" s="171"/>
-      <c r="F56" s="173"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="174"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="E57" s="171"/>
-      <c r="F57" s="173"/>
+      <c r="E57" s="172"/>
+      <c r="F57" s="174"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="E58" s="171"/>
-      <c r="F58" s="173"/>
+      <c r="E58" s="172"/>
+      <c r="F58" s="174"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="E59" s="171"/>
-      <c r="F59" s="173"/>
+      <c r="E59" s="172"/>
+      <c r="F59" s="174"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="E60" s="171"/>
-      <c r="F60" s="173"/>
+      <c r="E60" s="172"/>
+      <c r="F60" s="174"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="E61" s="171"/>
-      <c r="F61" s="173"/>
+      <c r="E61" s="172"/>
+      <c r="F61" s="174"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="E62" s="171"/>
-      <c r="F62" s="173"/>
+      <c r="E62" s="172"/>
+      <c r="F62" s="174"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="E63" s="171"/>
-      <c r="F63" s="173"/>
+      <c r="E63" s="172"/>
+      <c r="F63" s="174"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="E64" s="171"/>
-      <c r="F64" s="173"/>
+      <c r="E64" s="172"/>
+      <c r="F64" s="174"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="E65" s="171"/>
-      <c r="F65" s="173"/>
+      <c r="E65" s="172"/>
+      <c r="F65" s="174"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="E66" s="171"/>
-      <c r="F66" s="173"/>
+      <c r="E66" s="172"/>
+      <c r="F66" s="174"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="E67" s="171"/>
-      <c r="F67" s="173"/>
+      <c r="E67" s="172"/>
+      <c r="F67" s="174"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="E68" s="171"/>
-      <c r="F68" s="173"/>
+      <c r="E68" s="172"/>
+      <c r="F68" s="174"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="E69" s="171"/>
-      <c r="F69" s="173"/>
+      <c r="E69" s="172"/>
+      <c r="F69" s="174"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="E70" s="171"/>
-      <c r="F70" s="173"/>
+      <c r="E70" s="172"/>
+      <c r="F70" s="174"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="E71" s="171"/>
-      <c r="F71" s="173"/>
+      <c r="E71" s="172"/>
+      <c r="F71" s="174"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="E72" s="171"/>
-      <c r="F72" s="173"/>
+      <c r="E72" s="172"/>
+      <c r="F72" s="174"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="E73" s="171"/>
-      <c r="F73" s="173"/>
+      <c r="E73" s="172"/>
+      <c r="F73" s="174"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="E74" s="171"/>
-      <c r="F74" s="173"/>
+      <c r="E74" s="172"/>
+      <c r="F74" s="174"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="E75" s="171"/>
-      <c r="F75" s="173"/>
+      <c r="E75" s="172"/>
+      <c r="F75" s="174"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="E76" s="171"/>
-      <c r="F76" s="173"/>
+      <c r="E76" s="172"/>
+      <c r="F76" s="174"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="E77" s="171"/>
-      <c r="F77" s="173"/>
+      <c r="E77" s="172"/>
+      <c r="F77" s="174"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="E78" s="171"/>
-      <c r="F78" s="173"/>
+      <c r="E78" s="172"/>
+      <c r="F78" s="174"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="E79" s="171"/>
-      <c r="F79" s="173"/>
+      <c r="E79" s="172"/>
+      <c r="F79" s="174"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="E80" s="171"/>
-      <c r="F80" s="173"/>
+      <c r="E80" s="172"/>
+      <c r="F80" s="174"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="E81" s="171"/>
-      <c r="F81" s="173"/>
+      <c r="E81" s="172"/>
+      <c r="F81" s="174"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="E82" s="171"/>
-      <c r="F82" s="173"/>
+      <c r="E82" s="172"/>
+      <c r="F82" s="174"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="E83" s="171"/>
-      <c r="F83" s="173"/>
+      <c r="E83" s="172"/>
+      <c r="F83" s="174"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="E84" s="171"/>
-      <c r="F84" s="173"/>
+      <c r="E84" s="172"/>
+      <c r="F84" s="174"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="E85" s="171"/>
-      <c r="F85" s="173"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="174"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="E86" s="171"/>
-      <c r="F86" s="173"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="174"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="E87" s="171"/>
-      <c r="F87" s="173"/>
+      <c r="E87" s="172"/>
+      <c r="F87" s="174"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="E88" s="171"/>
-      <c r="F88" s="173"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="174"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="E89" s="171"/>
-      <c r="F89" s="173"/>
+      <c r="E89" s="172"/>
+      <c r="F89" s="174"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="E90" s="171"/>
-      <c r="F90" s="173"/>
+      <c r="E90" s="172"/>
+      <c r="F90" s="174"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="E91" s="171"/>
-      <c r="F91" s="173"/>
+      <c r="E91" s="172"/>
+      <c r="F91" s="174"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="E92" s="171"/>
-      <c r="F92" s="173"/>
+      <c r="E92" s="172"/>
+      <c r="F92" s="174"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="E93" s="171"/>
-      <c r="F93" s="173"/>
+      <c r="E93" s="172"/>
+      <c r="F93" s="174"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="E94" s="171"/>
-      <c r="F94" s="173"/>
+      <c r="E94" s="172"/>
+      <c r="F94" s="174"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="E95" s="171"/>
-      <c r="F95" s="173"/>
+      <c r="E95" s="172"/>
+      <c r="F95" s="174"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="E96" s="171"/>
-      <c r="F96" s="173"/>
+      <c r="E96" s="172"/>
+      <c r="F96" s="174"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="E97" s="171"/>
-      <c r="F97" s="173"/>
+      <c r="E97" s="172"/>
+      <c r="F97" s="174"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="E98" s="171"/>
-      <c r="F98" s="173"/>
+      <c r="E98" s="172"/>
+      <c r="F98" s="174"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="E99" s="171"/>
-      <c r="F99" s="173"/>
+      <c r="E99" s="172"/>
+      <c r="F99" s="174"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="E100" s="171"/>
-      <c r="F100" s="173"/>
+      <c r="E100" s="172"/>
+      <c r="F100" s="174"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="E101" s="171"/>
-      <c r="F101" s="173"/>
+      <c r="E101" s="172"/>
+      <c r="F101" s="174"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="E102" s="171"/>
-      <c r="F102" s="173"/>
+      <c r="E102" s="172"/>
+      <c r="F102" s="174"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="E103" s="171"/>
-      <c r="F103" s="173"/>
+      <c r="E103" s="172"/>
+      <c r="F103" s="174"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="E104" s="171"/>
-      <c r="F104" s="173"/>
+      <c r="E104" s="172"/>
+      <c r="F104" s="174"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="E105" s="171"/>
-      <c r="F105" s="173"/>
+      <c r="E105" s="172"/>
+      <c r="F105" s="174"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="E106" s="171"/>
-      <c r="F106" s="173"/>
+      <c r="E106" s="172"/>
+      <c r="F106" s="174"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="E107" s="171"/>
-      <c r="F107" s="173"/>
+      <c r="E107" s="172"/>
+      <c r="F107" s="174"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="E108" s="171"/>
-      <c r="F108" s="173"/>
+      <c r="E108" s="172"/>
+      <c r="F108" s="174"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="E109" s="171"/>
-      <c r="F109" s="173"/>
+      <c r="E109" s="172"/>
+      <c r="F109" s="174"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="E110" s="171"/>
-      <c r="F110" s="173"/>
+      <c r="E110" s="172"/>
+      <c r="F110" s="174"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="E111" s="171"/>
-      <c r="F111" s="173"/>
+      <c r="E111" s="172"/>
+      <c r="F111" s="174"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="E112" s="171"/>
-      <c r="F112" s="173"/>
+      <c r="E112" s="172"/>
+      <c r="F112" s="174"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="E113" s="171"/>
-      <c r="F113" s="173"/>
+      <c r="E113" s="172"/>
+      <c r="F113" s="174"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="E114" s="171"/>
-      <c r="F114" s="173"/>
+      <c r="E114" s="172"/>
+      <c r="F114" s="174"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="E115" s="171"/>
-      <c r="F115" s="173"/>
+      <c r="E115" s="172"/>
+      <c r="F115" s="174"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="E116" s="171"/>
-      <c r="F116" s="173"/>
+      <c r="E116" s="172"/>
+      <c r="F116" s="174"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="E117" s="171"/>
-      <c r="F117" s="173"/>
+      <c r="E117" s="172"/>
+      <c r="F117" s="174"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="E118" s="171"/>
-      <c r="F118" s="173"/>
+      <c r="E118" s="172"/>
+      <c r="F118" s="174"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="E119" s="171"/>
-      <c r="F119" s="173"/>
+      <c r="E119" s="172"/>
+      <c r="F119" s="174"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="E120" s="171"/>
-      <c r="F120" s="173"/>
+      <c r="E120" s="172"/>
+      <c r="F120" s="174"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="E121" s="171"/>
-      <c r="F121" s="173"/>
+      <c r="E121" s="172"/>
+      <c r="F121" s="174"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="E122" s="171"/>
-      <c r="F122" s="173"/>
+      <c r="E122" s="172"/>
+      <c r="F122" s="174"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="E123" s="171"/>
-      <c r="F123" s="173"/>
+      <c r="E123" s="172"/>
+      <c r="F123" s="174"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="E124" s="171"/>
-      <c r="F124" s="173"/>
+      <c r="E124" s="172"/>
+      <c r="F124" s="174"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="E125" s="171"/>
-      <c r="F125" s="173"/>
+      <c r="E125" s="172"/>
+      <c r="F125" s="174"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="E126" s="171"/>
-      <c r="F126" s="173"/>
+      <c r="E126" s="172"/>
+      <c r="F126" s="174"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="E127" s="171"/>
-      <c r="F127" s="173"/>
+      <c r="E127" s="172"/>
+      <c r="F127" s="174"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="E128" s="171"/>
-      <c r="F128" s="173"/>
+      <c r="E128" s="172"/>
+      <c r="F128" s="174"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="E129" s="171"/>
-      <c r="F129" s="173"/>
+      <c r="E129" s="172"/>
+      <c r="F129" s="174"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="E130" s="171"/>
-      <c r="F130" s="173"/>
+      <c r="E130" s="172"/>
+      <c r="F130" s="174"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="E131" s="171"/>
-      <c r="F131" s="173"/>
+      <c r="E131" s="172"/>
+      <c r="F131" s="174"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="E132" s="171"/>
-      <c r="F132" s="173"/>
+      <c r="E132" s="172"/>
+      <c r="F132" s="174"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="E133" s="171"/>
-      <c r="F133" s="173"/>
+      <c r="E133" s="172"/>
+      <c r="F133" s="174"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="E134" s="171"/>
-      <c r="F134" s="173"/>
+      <c r="E134" s="172"/>
+      <c r="F134" s="174"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="E135" s="171"/>
-      <c r="F135" s="173"/>
+      <c r="E135" s="172"/>
+      <c r="F135" s="174"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="E136" s="171"/>
-      <c r="F136" s="173"/>
+      <c r="E136" s="172"/>
+      <c r="F136" s="174"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="E137" s="171"/>
-      <c r="F137" s="173"/>
+      <c r="E137" s="172"/>
+      <c r="F137" s="174"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="E138" s="171"/>
-      <c r="F138" s="173"/>
+      <c r="E138" s="172"/>
+      <c r="F138" s="174"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="E139" s="171"/>
-      <c r="F139" s="173"/>
+      <c r="E139" s="172"/>
+      <c r="F139" s="174"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="E140" s="171"/>
-      <c r="F140" s="173"/>
+      <c r="E140" s="172"/>
+      <c r="F140" s="174"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="E141" s="171"/>
-      <c r="F141" s="173"/>
+      <c r="E141" s="172"/>
+      <c r="F141" s="174"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="E142" s="171"/>
-      <c r="F142" s="173"/>
+      <c r="E142" s="172"/>
+      <c r="F142" s="174"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="E143" s="171"/>
-      <c r="F143" s="173"/>
+      <c r="E143" s="172"/>
+      <c r="F143" s="174"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="E144" s="171"/>
-      <c r="F144" s="173"/>
+      <c r="E144" s="172"/>
+      <c r="F144" s="174"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="E145" s="171"/>
-      <c r="F145" s="173"/>
+      <c r="E145" s="172"/>
+      <c r="F145" s="174"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="E146" s="171"/>
-      <c r="F146" s="173"/>
+      <c r="E146" s="172"/>
+      <c r="F146" s="174"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="E147" s="171"/>
-      <c r="F147" s="173"/>
+      <c r="E147" s="172"/>
+      <c r="F147" s="174"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="E148" s="171"/>
-      <c r="F148" s="173"/>
+      <c r="E148" s="172"/>
+      <c r="F148" s="174"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="E149" s="171"/>
-      <c r="F149" s="173"/>
+      <c r="E149" s="172"/>
+      <c r="F149" s="174"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="E150" s="171"/>
-      <c r="F150" s="173"/>
+      <c r="E150" s="172"/>
+      <c r="F150" s="174"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="E151" s="171"/>
-      <c r="F151" s="173"/>
+      <c r="E151" s="172"/>
+      <c r="F151" s="174"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="E152" s="171"/>
-      <c r="F152" s="173"/>
+      <c r="E152" s="172"/>
+      <c r="F152" s="174"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="E153" s="171"/>
-      <c r="F153" s="173"/>
+      <c r="E153" s="172"/>
+      <c r="F153" s="174"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="E154" s="171"/>
-      <c r="F154" s="173"/>
+      <c r="E154" s="172"/>
+      <c r="F154" s="174"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="E155" s="171"/>
-      <c r="F155" s="173"/>
+      <c r="E155" s="172"/>
+      <c r="F155" s="174"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="E156" s="171"/>
-      <c r="F156" s="173"/>
+      <c r="E156" s="172"/>
+      <c r="F156" s="174"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="E157" s="171"/>
-      <c r="F157" s="173"/>
+      <c r="E157" s="172"/>
+      <c r="F157" s="174"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="E158" s="171"/>
-      <c r="F158" s="173"/>
+      <c r="E158" s="172"/>
+      <c r="F158" s="174"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="E159" s="171"/>
-      <c r="F159" s="173"/>
+      <c r="E159" s="172"/>
+      <c r="F159" s="174"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="E160" s="171"/>
-      <c r="F160" s="173"/>
+      <c r="E160" s="172"/>
+      <c r="F160" s="174"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="E161" s="171"/>
-      <c r="F161" s="173"/>
+      <c r="E161" s="172"/>
+      <c r="F161" s="174"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="E162" s="171"/>
-      <c r="F162" s="173"/>
+      <c r="E162" s="172"/>
+      <c r="F162" s="174"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="E163" s="171"/>
-      <c r="F163" s="173"/>
+      <c r="E163" s="172"/>
+      <c r="F163" s="174"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="E164" s="171"/>
-      <c r="F164" s="173"/>
+      <c r="E164" s="172"/>
+      <c r="F164" s="174"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="E165" s="171"/>
-      <c r="F165" s="173"/>
+      <c r="E165" s="172"/>
+      <c r="F165" s="174"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="E166" s="171"/>
-      <c r="F166" s="173"/>
+      <c r="E166" s="172"/>
+      <c r="F166" s="174"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="E167" s="171"/>
-      <c r="F167" s="173"/>
+      <c r="E167" s="172"/>
+      <c r="F167" s="174"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="E168" s="171"/>
-      <c r="F168" s="173"/>
+      <c r="E168" s="172"/>
+      <c r="F168" s="174"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="E169" s="171"/>
-      <c r="F169" s="173"/>
+      <c r="E169" s="172"/>
+      <c r="F169" s="174"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="E170" s="171"/>
-      <c r="F170" s="173"/>
+      <c r="E170" s="172"/>
+      <c r="F170" s="174"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="E171" s="171"/>
-      <c r="F171" s="173"/>
+      <c r="E171" s="172"/>
+      <c r="F171" s="174"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="E172" s="171"/>
-      <c r="F172" s="173"/>
+      <c r="E172" s="172"/>
+      <c r="F172" s="174"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="E173" s="171"/>
-      <c r="F173" s="173"/>
+      <c r="E173" s="172"/>
+      <c r="F173" s="174"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="E174" s="171"/>
-      <c r="F174" s="173"/>
+      <c r="E174" s="172"/>
+      <c r="F174" s="174"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="E175" s="171"/>
-      <c r="F175" s="173"/>
+      <c r="E175" s="172"/>
+      <c r="F175" s="174"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="E176" s="171"/>
-      <c r="F176" s="173"/>
+      <c r="E176" s="172"/>
+      <c r="F176" s="174"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="E177" s="171"/>
-      <c r="F177" s="173"/>
+      <c r="E177" s="172"/>
+      <c r="F177" s="174"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="E178" s="171"/>
-      <c r="F178" s="173"/>
+      <c r="E178" s="172"/>
+      <c r="F178" s="174"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="E179" s="171"/>
-      <c r="F179" s="173"/>
+      <c r="E179" s="172"/>
+      <c r="F179" s="174"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="E180" s="171"/>
-      <c r="F180" s="173"/>
+      <c r="E180" s="172"/>
+      <c r="F180" s="174"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="E181" s="171"/>
-      <c r="F181" s="173"/>
+      <c r="E181" s="172"/>
+      <c r="F181" s="174"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="E182" s="171"/>
-      <c r="F182" s="173"/>
+      <c r="E182" s="172"/>
+      <c r="F182" s="174"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="E183" s="171"/>
-      <c r="F183" s="173"/>
+      <c r="E183" s="172"/>
+      <c r="F183" s="174"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="E184" s="171"/>
-      <c r="F184" s="173"/>
+      <c r="E184" s="172"/>
+      <c r="F184" s="174"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="E185" s="171"/>
-      <c r="F185" s="173"/>
+      <c r="E185" s="172"/>
+      <c r="F185" s="174"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="E186" s="171"/>
-      <c r="F186" s="173"/>
+      <c r="E186" s="172"/>
+      <c r="F186" s="174"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="E187" s="171"/>
-      <c r="F187" s="173"/>
+      <c r="E187" s="172"/>
+      <c r="F187" s="174"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="E188" s="171"/>
-      <c r="F188" s="173"/>
+      <c r="E188" s="172"/>
+      <c r="F188" s="174"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="E189" s="171"/>
-      <c r="F189" s="173"/>
+      <c r="E189" s="172"/>
+      <c r="F189" s="174"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="E190" s="171"/>
-      <c r="F190" s="173"/>
+      <c r="E190" s="172"/>
+      <c r="F190" s="174"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="E191" s="171"/>
-      <c r="F191" s="173"/>
+      <c r="E191" s="172"/>
+      <c r="F191" s="174"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="E192" s="171"/>
-      <c r="F192" s="173"/>
+      <c r="E192" s="172"/>
+      <c r="F192" s="174"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="E193" s="171"/>
-      <c r="F193" s="173"/>
+      <c r="E193" s="172"/>
+      <c r="F193" s="174"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="E194" s="171"/>
-      <c r="F194" s="173"/>
+      <c r="E194" s="172"/>
+      <c r="F194" s="174"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="E195" s="171"/>
-      <c r="F195" s="173"/>
+      <c r="E195" s="172"/>
+      <c r="F195" s="174"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="E196" s="171"/>
-      <c r="F196" s="173"/>
+      <c r="E196" s="172"/>
+      <c r="F196" s="174"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="E197" s="171"/>
-      <c r="F197" s="173"/>
+      <c r="E197" s="172"/>
+      <c r="F197" s="174"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="E198" s="171"/>
-      <c r="F198" s="173"/>
+      <c r="E198" s="172"/>
+      <c r="F198" s="174"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="E199" s="171"/>
-      <c r="F199" s="173"/>
+      <c r="E199" s="172"/>
+      <c r="F199" s="174"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="E200" s="171"/>
-      <c r="F200" s="173"/>
+      <c r="E200" s="172"/>
+      <c r="F200" s="174"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="E201" s="171"/>
-      <c r="F201" s="173"/>
+      <c r="E201" s="172"/>
+      <c r="F201" s="174"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="E202" s="171"/>
-      <c r="F202" s="173"/>
+      <c r="E202" s="172"/>
+      <c r="F202" s="174"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="E203" s="171"/>
-      <c r="F203" s="173"/>
+      <c r="E203" s="172"/>
+      <c r="F203" s="174"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="E204" s="171"/>
-      <c r="F204" s="173"/>
+      <c r="E204" s="172"/>
+      <c r="F204" s="174"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="E205" s="171"/>
-      <c r="F205" s="173"/>
+      <c r="E205" s="172"/>
+      <c r="F205" s="174"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="E206" s="171"/>
-      <c r="F206" s="173"/>
+      <c r="E206" s="172"/>
+      <c r="F206" s="174"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="E207" s="171"/>
-      <c r="F207" s="173"/>
+      <c r="E207" s="172"/>
+      <c r="F207" s="174"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="E208" s="171"/>
-      <c r="F208" s="173"/>
+      <c r="E208" s="172"/>
+      <c r="F208" s="174"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="E209" s="171"/>
-      <c r="F209" s="173"/>
+      <c r="E209" s="172"/>
+      <c r="F209" s="174"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="E210" s="171"/>
-      <c r="F210" s="173"/>
+      <c r="E210" s="172"/>
+      <c r="F210" s="174"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="E211" s="171"/>
-      <c r="F211" s="173"/>
+      <c r="E211" s="172"/>
+      <c r="F211" s="174"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="E212" s="171"/>
-      <c r="F212" s="173"/>
+      <c r="E212" s="172"/>
+      <c r="F212" s="174"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="E213" s="171"/>
-      <c r="F213" s="173"/>
+      <c r="E213" s="172"/>
+      <c r="F213" s="174"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="E214" s="171"/>
-      <c r="F214" s="173"/>
+      <c r="E214" s="172"/>
+      <c r="F214" s="174"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="E215" s="171"/>
-      <c r="F215" s="173"/>
+      <c r="E215" s="172"/>
+      <c r="F215" s="174"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="E216" s="171"/>
-      <c r="F216" s="173"/>
+      <c r="E216" s="172"/>
+      <c r="F216" s="174"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="E217" s="171"/>
-      <c r="F217" s="173"/>
+      <c r="E217" s="172"/>
+      <c r="F217" s="174"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="E218" s="171"/>
-      <c r="F218" s="173"/>
+      <c r="E218" s="172"/>
+      <c r="F218" s="174"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="E219" s="171"/>
-      <c r="F219" s="173"/>
+      <c r="E219" s="172"/>
+      <c r="F219" s="174"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="E220" s="171"/>
-      <c r="F220" s="173"/>
+      <c r="E220" s="172"/>
+      <c r="F220" s="174"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -28918,893 +28921,893 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="168" t="s">
         <v>399</v>
       </c>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="169" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="169" t="s">
         <v>401</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="169" t="s">
         <v>405</v>
       </c>
-      <c r="F4" s="169" t="s">
+      <c r="F4" s="170" t="s">
         <v>402</v>
       </c>
-      <c r="G4" s="168" t="s">
+      <c r="G4" s="169" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="168" t="s">
+      <c r="H4" s="169" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="E5" s="171"/>
-      <c r="F5" s="178"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="179"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="E6" s="171"/>
-      <c r="F6" s="179"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="180"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="E7" s="171"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="180"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="E8" s="171"/>
-      <c r="F8" s="179"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="180"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="E9" s="171"/>
-      <c r="F9" s="179"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="180"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="E10" s="171"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="180"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="E11" s="171"/>
-      <c r="F11" s="179"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="180"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="E12" s="171"/>
-      <c r="F12" s="179"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="180"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="E13" s="171"/>
-      <c r="F13" s="179"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="180"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="E14" s="171"/>
-      <c r="F14" s="179"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="180"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="E15" s="171"/>
-      <c r="F15" s="179"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="180"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="E16" s="171"/>
-      <c r="F16" s="179"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="180"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="E17" s="171"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="180"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="E18" s="171"/>
-      <c r="F18" s="179"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="180"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="E19" s="171"/>
-      <c r="F19" s="179"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="180"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="E20" s="171"/>
-      <c r="F20" s="179"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="180"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="E21" s="171"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="180"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="E22" s="171"/>
-      <c r="F22" s="179"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="180"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="E23" s="171"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="180"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="E24" s="171"/>
-      <c r="F24" s="179"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="180"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="E25" s="171"/>
-      <c r="F25" s="179"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="180"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="E26" s="171"/>
-      <c r="F26" s="179"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="180"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="E27" s="171"/>
-      <c r="F27" s="179"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="180"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="E28" s="171"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="180"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="E29" s="171"/>
-      <c r="F29" s="179"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="180"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="E30" s="171"/>
-      <c r="F30" s="179"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="180"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="E31" s="171"/>
-      <c r="F31" s="179"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="180"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="E32" s="171"/>
-      <c r="F32" s="179"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="180"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="E33" s="171"/>
-      <c r="F33" s="179"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="180"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="E34" s="171"/>
-      <c r="F34" s="179"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="180"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="E35" s="171"/>
-      <c r="F35" s="179"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="180"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="E36" s="171"/>
-      <c r="F36" s="179"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="180"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="E37" s="171"/>
-      <c r="F37" s="179"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="180"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="E38" s="171"/>
-      <c r="F38" s="179"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="180"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="E39" s="171"/>
-      <c r="F39" s="179"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="180"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="E40" s="171"/>
-      <c r="F40" s="179"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="180"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="E41" s="171"/>
-      <c r="F41" s="179"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="180"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="E42" s="171"/>
-      <c r="F42" s="179"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="180"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="E43" s="171"/>
-      <c r="F43" s="179"/>
+      <c r="E43" s="172"/>
+      <c r="F43" s="180"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="E44" s="171"/>
-      <c r="F44" s="179"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="180"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="E45" s="171"/>
-      <c r="F45" s="179"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="180"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="E46" s="171"/>
-      <c r="F46" s="179"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="180"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="E47" s="171"/>
-      <c r="F47" s="179"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="180"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="E48" s="171"/>
-      <c r="F48" s="179"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="180"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="E49" s="171"/>
-      <c r="F49" s="179"/>
+      <c r="E49" s="172"/>
+      <c r="F49" s="180"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="E50" s="171"/>
-      <c r="F50" s="179"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="180"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="E51" s="171"/>
-      <c r="F51" s="179"/>
+      <c r="E51" s="172"/>
+      <c r="F51" s="180"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="E52" s="171"/>
-      <c r="F52" s="179"/>
+      <c r="E52" s="172"/>
+      <c r="F52" s="180"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="E53" s="171"/>
-      <c r="F53" s="179"/>
+      <c r="E53" s="172"/>
+      <c r="F53" s="180"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="E54" s="171"/>
-      <c r="F54" s="179"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="180"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="E55" s="174"/>
+      <c r="E55" s="175"/>
       <c r="F55" s="147"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="E56" s="174"/>
+      <c r="E56" s="175"/>
       <c r="F56" s="147"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="E57" s="174"/>
+      <c r="E57" s="175"/>
       <c r="F57" s="147"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="E58" s="174"/>
+      <c r="E58" s="175"/>
       <c r="F58" s="147"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="E59" s="174"/>
+      <c r="E59" s="175"/>
       <c r="F59" s="147"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="E60" s="174"/>
+      <c r="E60" s="175"/>
       <c r="F60" s="147"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="E61" s="174"/>
+      <c r="E61" s="175"/>
       <c r="F61" s="147"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="E62" s="174"/>
+      <c r="E62" s="175"/>
       <c r="F62" s="147"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="E63" s="174"/>
+      <c r="E63" s="175"/>
       <c r="F63" s="147"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="E64" s="174"/>
+      <c r="E64" s="175"/>
       <c r="F64" s="147"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="E65" s="174"/>
+      <c r="E65" s="175"/>
       <c r="F65" s="147"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="E66" s="174"/>
+      <c r="E66" s="175"/>
       <c r="F66" s="147"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="E67" s="174"/>
+      <c r="E67" s="175"/>
       <c r="F67" s="147"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="E68" s="174"/>
+      <c r="E68" s="175"/>
       <c r="F68" s="147"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="E69" s="174"/>
+      <c r="E69" s="175"/>
       <c r="F69" s="147"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="E70" s="174"/>
+      <c r="E70" s="175"/>
       <c r="F70" s="147"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="E71" s="174"/>
+      <c r="E71" s="175"/>
       <c r="F71" s="147"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="E72" s="174"/>
+      <c r="E72" s="175"/>
       <c r="F72" s="147"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="E73" s="174"/>
+      <c r="E73" s="175"/>
       <c r="F73" s="147"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="E74" s="174"/>
+      <c r="E74" s="175"/>
       <c r="F74" s="147"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="E75" s="174"/>
+      <c r="E75" s="175"/>
       <c r="F75" s="147"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="E76" s="174"/>
+      <c r="E76" s="175"/>
       <c r="F76" s="147"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="E77" s="174"/>
+      <c r="E77" s="175"/>
       <c r="F77" s="147"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="E78" s="174"/>
+      <c r="E78" s="175"/>
       <c r="F78" s="147"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="E79" s="174"/>
+      <c r="E79" s="175"/>
       <c r="F79" s="147"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="E80" s="174"/>
+      <c r="E80" s="175"/>
       <c r="F80" s="147"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="E81" s="174"/>
+      <c r="E81" s="175"/>
       <c r="F81" s="147"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="E82" s="174"/>
+      <c r="E82" s="175"/>
       <c r="F82" s="147"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="E83" s="174"/>
+      <c r="E83" s="175"/>
       <c r="F83" s="147"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="E84" s="174"/>
+      <c r="E84" s="175"/>
       <c r="F84" s="147"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="E85" s="174"/>
+      <c r="E85" s="175"/>
       <c r="F85" s="147"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="E86" s="174"/>
+      <c r="E86" s="175"/>
       <c r="F86" s="147"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="E87" s="174"/>
+      <c r="E87" s="175"/>
       <c r="F87" s="147"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="E88" s="174"/>
+      <c r="E88" s="175"/>
       <c r="F88" s="147"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="E89" s="174"/>
+      <c r="E89" s="175"/>
       <c r="F89" s="147"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="E90" s="174"/>
+      <c r="E90" s="175"/>
       <c r="F90" s="147"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="E91" s="174"/>
+      <c r="E91" s="175"/>
       <c r="F91" s="147"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="E92" s="174"/>
+      <c r="E92" s="175"/>
       <c r="F92" s="147"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="E93" s="174"/>
+      <c r="E93" s="175"/>
       <c r="F93" s="147"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="E94" s="174"/>
+      <c r="E94" s="175"/>
       <c r="F94" s="147"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="E95" s="174"/>
+      <c r="E95" s="175"/>
       <c r="F95" s="147"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="E96" s="174"/>
+      <c r="E96" s="175"/>
       <c r="F96" s="147"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="E97" s="174"/>
+      <c r="E97" s="175"/>
       <c r="F97" s="147"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="E98" s="174"/>
+      <c r="E98" s="175"/>
       <c r="F98" s="147"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="E99" s="174"/>
+      <c r="E99" s="175"/>
       <c r="F99" s="147"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="E100" s="174"/>
+      <c r="E100" s="175"/>
       <c r="F100" s="147"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="E101" s="174"/>
+      <c r="E101" s="175"/>
       <c r="F101" s="147"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="E102" s="174"/>
+      <c r="E102" s="175"/>
       <c r="F102" s="147"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="E103" s="174"/>
+      <c r="E103" s="175"/>
       <c r="F103" s="147"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="E104" s="174"/>
+      <c r="E104" s="175"/>
       <c r="F104" s="147"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="E105" s="174"/>
+      <c r="E105" s="175"/>
       <c r="F105" s="147"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="E106" s="174"/>
+      <c r="E106" s="175"/>
       <c r="F106" s="147"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="E107" s="174"/>
+      <c r="E107" s="175"/>
       <c r="F107" s="147"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="E108" s="174"/>
+      <c r="E108" s="175"/>
       <c r="F108" s="147"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="E109" s="174"/>
+      <c r="E109" s="175"/>
       <c r="F109" s="147"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="E110" s="174"/>
+      <c r="E110" s="175"/>
       <c r="F110" s="147"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="E111" s="174"/>
+      <c r="E111" s="175"/>
       <c r="F111" s="147"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="E112" s="174"/>
+      <c r="E112" s="175"/>
       <c r="F112" s="147"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="E113" s="174"/>
+      <c r="E113" s="175"/>
       <c r="F113" s="147"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="E114" s="174"/>
+      <c r="E114" s="175"/>
       <c r="F114" s="147"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="E115" s="174"/>
+      <c r="E115" s="175"/>
       <c r="F115" s="147"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="E116" s="174"/>
+      <c r="E116" s="175"/>
       <c r="F116" s="147"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="E117" s="174"/>
+      <c r="E117" s="175"/>
       <c r="F117" s="147"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="E118" s="174"/>
+      <c r="E118" s="175"/>
       <c r="F118" s="147"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="E119" s="174"/>
+      <c r="E119" s="175"/>
       <c r="F119" s="147"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="E120" s="174"/>
+      <c r="E120" s="175"/>
       <c r="F120" s="147"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="E121" s="174"/>
+      <c r="E121" s="175"/>
       <c r="F121" s="147"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="E122" s="174"/>
+      <c r="E122" s="175"/>
       <c r="F122" s="147"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="E123" s="174"/>
+      <c r="E123" s="175"/>
       <c r="F123" s="147"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="E124" s="174"/>
+      <c r="E124" s="175"/>
       <c r="F124" s="147"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="E125" s="174"/>
+      <c r="E125" s="175"/>
       <c r="F125" s="147"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="E126" s="174"/>
+      <c r="E126" s="175"/>
       <c r="F126" s="147"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="E127" s="174"/>
+      <c r="E127" s="175"/>
       <c r="F127" s="147"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="E128" s="174"/>
+      <c r="E128" s="175"/>
       <c r="F128" s="147"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="E129" s="174"/>
+      <c r="E129" s="175"/>
       <c r="F129" s="147"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="E130" s="174"/>
+      <c r="E130" s="175"/>
       <c r="F130" s="147"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="E131" s="174"/>
+      <c r="E131" s="175"/>
       <c r="F131" s="147"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="E132" s="174"/>
+      <c r="E132" s="175"/>
       <c r="F132" s="147"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="E133" s="174"/>
+      <c r="E133" s="175"/>
       <c r="F133" s="147"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="E134" s="174"/>
+      <c r="E134" s="175"/>
       <c r="F134" s="147"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="E135" s="174"/>
+      <c r="E135" s="175"/>
       <c r="F135" s="147"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="E136" s="174"/>
+      <c r="E136" s="175"/>
       <c r="F136" s="147"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="E137" s="174"/>
+      <c r="E137" s="175"/>
       <c r="F137" s="147"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="E138" s="174"/>
+      <c r="E138" s="175"/>
       <c r="F138" s="147"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="E139" s="174"/>
+      <c r="E139" s="175"/>
       <c r="F139" s="147"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="E140" s="174"/>
+      <c r="E140" s="175"/>
       <c r="F140" s="147"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="E141" s="174"/>
+      <c r="E141" s="175"/>
       <c r="F141" s="147"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="E142" s="174"/>
+      <c r="E142" s="175"/>
       <c r="F142" s="147"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="E143" s="174"/>
+      <c r="E143" s="175"/>
       <c r="F143" s="147"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="E144" s="174"/>
+      <c r="E144" s="175"/>
       <c r="F144" s="147"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="E145" s="174"/>
+      <c r="E145" s="175"/>
       <c r="F145" s="147"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="E146" s="174"/>
+      <c r="E146" s="175"/>
       <c r="F146" s="147"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="E147" s="174"/>
+      <c r="E147" s="175"/>
       <c r="F147" s="147"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="E148" s="174"/>
+      <c r="E148" s="175"/>
       <c r="F148" s="147"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="E149" s="174"/>
+      <c r="E149" s="175"/>
       <c r="F149" s="147"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="E150" s="174"/>
+      <c r="E150" s="175"/>
       <c r="F150" s="147"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="E151" s="174"/>
+      <c r="E151" s="175"/>
       <c r="F151" s="147"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="E152" s="174"/>
+      <c r="E152" s="175"/>
       <c r="F152" s="147"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="E153" s="174"/>
+      <c r="E153" s="175"/>
       <c r="F153" s="147"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="E154" s="174"/>
+      <c r="E154" s="175"/>
       <c r="F154" s="147"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="E155" s="174"/>
+      <c r="E155" s="175"/>
       <c r="F155" s="147"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="E156" s="174"/>
+      <c r="E156" s="175"/>
       <c r="F156" s="147"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="E157" s="174"/>
+      <c r="E157" s="175"/>
       <c r="F157" s="147"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="E158" s="174"/>
+      <c r="E158" s="175"/>
       <c r="F158" s="147"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="E159" s="174"/>
+      <c r="E159" s="175"/>
       <c r="F159" s="147"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="E160" s="174"/>
+      <c r="E160" s="175"/>
       <c r="F160" s="147"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="E161" s="174"/>
+      <c r="E161" s="175"/>
       <c r="F161" s="147"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="E162" s="174"/>
+      <c r="E162" s="175"/>
       <c r="F162" s="147"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="E163" s="174"/>
+      <c r="E163" s="175"/>
       <c r="F163" s="147"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="E164" s="174"/>
+      <c r="E164" s="175"/>
       <c r="F164" s="147"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="E165" s="174"/>
+      <c r="E165" s="175"/>
       <c r="F165" s="147"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="E166" s="174"/>
+      <c r="E166" s="175"/>
       <c r="F166" s="147"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="E167" s="174"/>
+      <c r="E167" s="175"/>
       <c r="F167" s="147"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="E168" s="174"/>
+      <c r="E168" s="175"/>
       <c r="F168" s="147"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="E169" s="174"/>
+      <c r="E169" s="175"/>
       <c r="F169" s="147"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="E170" s="174"/>
+      <c r="E170" s="175"/>
       <c r="F170" s="147"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="E171" s="174"/>
+      <c r="E171" s="175"/>
       <c r="F171" s="147"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="E172" s="174"/>
+      <c r="E172" s="175"/>
       <c r="F172" s="147"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="E173" s="174"/>
+      <c r="E173" s="175"/>
       <c r="F173" s="147"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="E174" s="174"/>
+      <c r="E174" s="175"/>
       <c r="F174" s="147"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="E175" s="174"/>
+      <c r="E175" s="175"/>
       <c r="F175" s="147"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="E176" s="174"/>
+      <c r="E176" s="175"/>
       <c r="F176" s="147"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="E177" s="174"/>
+      <c r="E177" s="175"/>
       <c r="F177" s="147"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="E178" s="174"/>
+      <c r="E178" s="175"/>
       <c r="F178" s="147"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="E179" s="174"/>
+      <c r="E179" s="175"/>
       <c r="F179" s="147"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="E180" s="174"/>
+      <c r="E180" s="175"/>
       <c r="F180" s="147"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="E181" s="174"/>
+      <c r="E181" s="175"/>
       <c r="F181" s="147"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="E182" s="174"/>
+      <c r="E182" s="175"/>
       <c r="F182" s="147"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="E183" s="174"/>
+      <c r="E183" s="175"/>
       <c r="F183" s="147"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="E184" s="174"/>
+      <c r="E184" s="175"/>
       <c r="F184" s="147"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="E185" s="174"/>
+      <c r="E185" s="175"/>
       <c r="F185" s="147"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="E186" s="174"/>
+      <c r="E186" s="175"/>
       <c r="F186" s="147"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="E187" s="174"/>
+      <c r="E187" s="175"/>
       <c r="F187" s="147"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="E188" s="174"/>
+      <c r="E188" s="175"/>
       <c r="F188" s="147"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="E189" s="174"/>
+      <c r="E189" s="175"/>
       <c r="F189" s="147"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="E190" s="174"/>
+      <c r="E190" s="175"/>
       <c r="F190" s="147"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="E191" s="174"/>
+      <c r="E191" s="175"/>
       <c r="F191" s="147"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="E192" s="174"/>
+      <c r="E192" s="175"/>
       <c r="F192" s="147"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="E193" s="174"/>
+      <c r="E193" s="175"/>
       <c r="F193" s="147"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="E194" s="174"/>
+      <c r="E194" s="175"/>
       <c r="F194" s="147"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="E195" s="174"/>
+      <c r="E195" s="175"/>
       <c r="F195" s="147"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="E196" s="174"/>
+      <c r="E196" s="175"/>
       <c r="F196" s="147"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="E197" s="174"/>
+      <c r="E197" s="175"/>
       <c r="F197" s="147"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="E198" s="174"/>
+      <c r="E198" s="175"/>
       <c r="F198" s="147"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="E199" s="174"/>
+      <c r="E199" s="175"/>
       <c r="F199" s="147"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="E200" s="174"/>
+      <c r="E200" s="175"/>
       <c r="F200" s="147"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="E201" s="174"/>
+      <c r="E201" s="175"/>
       <c r="F201" s="147"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="E202" s="174"/>
+      <c r="E202" s="175"/>
       <c r="F202" s="147"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="E203" s="174"/>
+      <c r="E203" s="175"/>
       <c r="F203" s="147"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="E204" s="174"/>
+      <c r="E204" s="175"/>
       <c r="F204" s="147"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="E205" s="174"/>
+      <c r="E205" s="175"/>
       <c r="F205" s="147"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="E206" s="174"/>
+      <c r="E206" s="175"/>
       <c r="F206" s="147"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="E207" s="174"/>
+      <c r="E207" s="175"/>
       <c r="F207" s="147"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="E208" s="174"/>
+      <c r="E208" s="175"/>
       <c r="F208" s="147"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="E209" s="174"/>
+      <c r="E209" s="175"/>
       <c r="F209" s="147"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="E210" s="174"/>
+      <c r="E210" s="175"/>
       <c r="F210" s="147"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="E211" s="174"/>
+      <c r="E211" s="175"/>
       <c r="F211" s="147"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="E212" s="174"/>
+      <c r="E212" s="175"/>
       <c r="F212" s="147"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="E213" s="174"/>
+      <c r="E213" s="175"/>
       <c r="F213" s="147"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="E214" s="174"/>
+      <c r="E214" s="175"/>
       <c r="F214" s="147"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="E215" s="174"/>
+      <c r="E215" s="175"/>
       <c r="F215" s="147"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="E216" s="174"/>
+      <c r="E216" s="175"/>
       <c r="F216" s="147"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="E217" s="174"/>
+      <c r="E217" s="175"/>
       <c r="F217" s="147"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="E218" s="174"/>
+      <c r="E218" s="175"/>
       <c r="F218" s="147"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="E219" s="174"/>
+      <c r="E219" s="175"/>
       <c r="F219" s="147"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="E220" s="174"/>
+      <c r="E220" s="175"/>
       <c r="F220" s="147"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
@@ -30637,16 +30640,16 @@
       <c r="D3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="169" t="s">
         <v>399</v>
       </c>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="169" t="s">
         <v>406</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="169" t="s">
         <v>407</v>
       </c>
     </row>
@@ -31684,171 +31687,171 @@
       <c r="E3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="169" t="s">
         <v>399</v>
       </c>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="169" t="s">
         <v>406</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="169" t="s">
         <v>405</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="169" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="5">
-      <c r="E5" s="180"/>
+      <c r="E5" s="181"/>
     </row>
     <row r="6">
-      <c r="E6" s="180"/>
+      <c r="E6" s="181"/>
     </row>
     <row r="7">
-      <c r="E7" s="180"/>
+      <c r="E7" s="181"/>
     </row>
     <row r="8">
-      <c r="E8" s="180"/>
+      <c r="E8" s="181"/>
     </row>
     <row r="9">
-      <c r="E9" s="180"/>
+      <c r="E9" s="181"/>
     </row>
     <row r="10">
-      <c r="E10" s="180"/>
+      <c r="E10" s="181"/>
     </row>
     <row r="11">
-      <c r="E11" s="180"/>
+      <c r="E11" s="181"/>
     </row>
     <row r="12">
-      <c r="E12" s="180"/>
+      <c r="E12" s="181"/>
     </row>
     <row r="13">
-      <c r="E13" s="180"/>
+      <c r="E13" s="181"/>
     </row>
     <row r="14">
-      <c r="E14" s="180"/>
+      <c r="E14" s="181"/>
     </row>
     <row r="15">
-      <c r="E15" s="180"/>
+      <c r="E15" s="181"/>
     </row>
     <row r="16">
-      <c r="E16" s="180"/>
+      <c r="E16" s="181"/>
     </row>
     <row r="17">
-      <c r="E17" s="180"/>
+      <c r="E17" s="181"/>
     </row>
     <row r="18">
-      <c r="E18" s="180"/>
+      <c r="E18" s="181"/>
     </row>
     <row r="19">
-      <c r="E19" s="180"/>
+      <c r="E19" s="181"/>
     </row>
     <row r="20">
-      <c r="E20" s="180"/>
+      <c r="E20" s="181"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="E21" s="180"/>
+      <c r="E21" s="181"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="E22" s="180"/>
+      <c r="E22" s="181"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="E23" s="180"/>
+      <c r="E23" s="181"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="E24" s="180"/>
+      <c r="E24" s="181"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="E25" s="180"/>
+      <c r="E25" s="181"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="E26" s="180"/>
+      <c r="E26" s="181"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="E27" s="180"/>
+      <c r="E27" s="181"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="E28" s="180"/>
+      <c r="E28" s="181"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="E29" s="180"/>
+      <c r="E29" s="181"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="E30" s="180"/>
+      <c r="E30" s="181"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="E31" s="180"/>
+      <c r="E31" s="181"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="E32" s="180"/>
+      <c r="E32" s="181"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="E33" s="180"/>
+      <c r="E33" s="181"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="E34" s="180"/>
+      <c r="E34" s="181"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="E35" s="180"/>
+      <c r="E35" s="181"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="E36" s="180"/>
+      <c r="E36" s="181"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="E37" s="180"/>
+      <c r="E37" s="181"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="E38" s="180"/>
+      <c r="E38" s="181"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="E39" s="180"/>
+      <c r="E39" s="181"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="E40" s="180"/>
+      <c r="E40" s="181"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="E41" s="180"/>
+      <c r="E41" s="181"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="E42" s="180"/>
+      <c r="E42" s="181"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="E43" s="180"/>
+      <c r="E43" s="181"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="E44" s="180"/>
+      <c r="E44" s="181"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="E45" s="180"/>
+      <c r="E45" s="181"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="E46" s="180"/>
+      <c r="E46" s="181"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="E47" s="180"/>
+      <c r="E47" s="181"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="E48" s="180"/>
+      <c r="E48" s="181"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="E49" s="180"/>
+      <c r="E49" s="181"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="E50" s="180"/>
+      <c r="E50" s="181"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="E51" s="180"/>
+      <c r="E51" s="181"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="E52" s="180"/>
+      <c r="E52" s="181"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="E53" s="180"/>
+      <c r="E53" s="181"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="E54" s="181"/>
+      <c r="E54" s="182"/>
     </row>
     <row r="55" ht="15.75" customHeight="1"/>
     <row r="56" ht="15.75" customHeight="1"/>
@@ -32847,19 +32850,19 @@
       <c r="E3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="170" t="s">
         <v>399</v>
       </c>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="169" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="170" t="s">
         <v>402</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="169" t="s">
         <v>403</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="169" t="s">
         <v>404</v>
       </c>
       <c r="F4" s="13" t="s">
